--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D0588A-C094-4469-953F-85C1949AFDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B3CD46-8BD3-49BD-A095-463C5F7074F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54360" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="2175" yWindow="3930" windowWidth="30465" windowHeight="16290" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Child</t>
   </si>
@@ -33,157 +33,10 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>CH50R00000</t>
+    <t>CH65GLE005</t>
   </si>
   <si>
-    <t>CH50R00001</t>
-  </si>
-  <si>
-    <t>CH50R00002</t>
-  </si>
-  <si>
-    <t>CH50R00003</t>
-  </si>
-  <si>
-    <t>CH50R00004</t>
-  </si>
-  <si>
-    <t>CH50R00005</t>
-  </si>
-  <si>
-    <t>CH50R00006</t>
-  </si>
-  <si>
-    <t>CH50R00009</t>
-  </si>
-  <si>
-    <t>CH50R00010</t>
-  </si>
-  <si>
-    <t>CH50R01001</t>
-  </si>
-  <si>
-    <t>CH50R01005</t>
-  </si>
-  <si>
-    <t>CH50R01006</t>
-  </si>
-  <si>
-    <t>CH50R01007</t>
-  </si>
-  <si>
-    <t>CH50R01009</t>
-  </si>
-  <si>
-    <t>CH50R01010</t>
-  </si>
-  <si>
-    <t>CH50R01011</t>
-  </si>
-  <si>
-    <t>CH50R01015</t>
-  </si>
-  <si>
-    <t>CH50R01017</t>
-  </si>
-  <si>
-    <t>CH50R01019</t>
-  </si>
-  <si>
-    <t>CH50R01020</t>
-  </si>
-  <si>
-    <t>CH50R01026</t>
-  </si>
-  <si>
-    <t>CH50R01028</t>
-  </si>
-  <si>
-    <t>CH50R01032</t>
-  </si>
-  <si>
-    <t>CH50R01033</t>
-  </si>
-  <si>
-    <t>CH50R01035</t>
-  </si>
-  <si>
-    <t>CH50R30001</t>
-  </si>
-  <si>
-    <t>CH50R34005</t>
-  </si>
-  <si>
-    <t>CH50R34006</t>
-  </si>
-  <si>
-    <t>CH50TLV300</t>
-  </si>
-  <si>
-    <t>CH50TLV303</t>
-  </si>
-  <si>
-    <t>CH50TLV340</t>
-  </si>
-  <si>
-    <t>CH50TLV341</t>
-  </si>
-  <si>
-    <t>CH50TLV343</t>
-  </si>
-  <si>
-    <t>CH50TLV360</t>
-  </si>
-  <si>
-    <t>CH50TLVBPS</t>
-  </si>
-  <si>
-    <t>CH65R00001</t>
-  </si>
-  <si>
-    <t>CH65R00002</t>
-  </si>
-  <si>
-    <t>CH65R00009</t>
-  </si>
-  <si>
-    <t>CH65R00010</t>
-  </si>
-  <si>
-    <t>CH65R00024</t>
-  </si>
-  <si>
-    <t>CH65R00035</t>
-  </si>
-  <si>
-    <t>CH65R00062</t>
-  </si>
-  <si>
-    <t>CH65R00079</t>
-  </si>
-  <si>
-    <t>CH65R01001</t>
-  </si>
-  <si>
-    <t>CH65R01005</t>
-  </si>
-  <si>
-    <t>CH65R01006</t>
-  </si>
-  <si>
-    <t>CH65R01007</t>
-  </si>
-  <si>
-    <t>CH65R01009</t>
-  </si>
-  <si>
-    <t>CH65R01033</t>
-  </si>
-  <si>
-    <t>CH65R01035</t>
-  </si>
-  <si>
-    <t>H000004380</t>
+    <t>G000000089</t>
   </si>
 </sst>
 </file>
@@ -547,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,399 +425,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B3CD46-8BD3-49BD-A095-463C5F7074F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40319E73-B38F-4525-BEB9-C07BA4B263A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="3930" windowWidth="30465" windowHeight="16290" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="960" yWindow="4725" windowWidth="30465" windowHeight="16290" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,10 +33,10 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>CH65GLE005</t>
+    <t>DE10603903</t>
   </si>
   <si>
-    <t>G000000089</t>
+    <t>G000000397</t>
   </si>
 </sst>
 </file>
@@ -52,12 +52,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -85,7 +91,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +409,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,10 +427,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -435,6 +441,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -611,27 +637,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -648,23 +673,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40319E73-B38F-4525-BEB9-C07BA4B263A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F09DC67-EE58-424C-A19B-6563A463C238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="4725" windowWidth="30465" windowHeight="16290" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-20340" yWindow="1875" windowWidth="19680" windowHeight="12285" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Child</t>
   </si>
@@ -33,10 +33,25 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>DE10603903</t>
-  </si>
-  <si>
-    <t>G000000397</t>
+    <t>G000000686</t>
+  </si>
+  <si>
+    <t>G000000860</t>
+  </si>
+  <si>
+    <t>G000000861</t>
+  </si>
+  <si>
+    <t>G000000862</t>
+  </si>
+  <si>
+    <t>G000000922</t>
+  </si>
+  <si>
+    <t>G000000873</t>
+  </si>
+  <si>
+    <t>G000000915</t>
   </si>
 </sst>
 </file>
@@ -52,21 +67,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -74,24 +83,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,8 +427,40 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -441,26 +470,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -637,26 +646,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -673,4 +683,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F09DC67-EE58-424C-A19B-6563A463C238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD5998D-0525-4F05-B4CC-08569E993FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20340" yWindow="1875" windowWidth="19680" windowHeight="12285" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-23655" yWindow="1530" windowWidth="15720" windowHeight="11220" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Child</t>
   </si>
@@ -33,25 +44,13 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>G000000686</t>
+    <t>G000001236</t>
   </si>
   <si>
-    <t>G000000860</t>
+    <t>G000001237</t>
   </si>
   <si>
-    <t>G000000861</t>
-  </si>
-  <si>
-    <t>G000000862</t>
-  </si>
-  <si>
-    <t>G000000922</t>
-  </si>
-  <si>
-    <t>G000000873</t>
-  </si>
-  <si>
-    <t>G000000915</t>
+    <t>G000001119</t>
   </si>
 </sst>
 </file>
@@ -403,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -436,31 +435,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -470,6 +445,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -646,27 +641,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -683,23 +677,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD5998D-0525-4F05-B4CC-08569E993FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8136380-3289-4080-BA49-FF4F230FD819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23655" yWindow="1530" windowWidth="15720" windowHeight="11220" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-22320" yWindow="2730" windowWidth="15720" windowHeight="11220" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Child</t>
   </si>
@@ -44,13 +44,34 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>G000001236</t>
-  </si>
-  <si>
-    <t>G000001237</t>
-  </si>
-  <si>
-    <t>G000001119</t>
+    <t>G000000714</t>
+  </si>
+  <si>
+    <t>G000001211</t>
+  </si>
+  <si>
+    <t>P000000056</t>
+  </si>
+  <si>
+    <t>DE10GM8400</t>
+  </si>
+  <si>
+    <t>DE10GM8401</t>
+  </si>
+  <si>
+    <t>DE10GM8402</t>
+  </si>
+  <si>
+    <t>DE10GM8403</t>
+  </si>
+  <si>
+    <t>DE10GM8404</t>
+  </si>
+  <si>
+    <t>CN90GM8004</t>
+  </si>
+  <si>
+    <t>DE10B05000</t>
   </si>
 </sst>
 </file>
@@ -402,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,17 +445,57 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -445,26 +506,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -641,26 +682,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -677,4 +719,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1DA4C8-8D1E-475C-BB83-231759526106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB0CA0A-265E-4F3B-B0E1-9A540F7D4E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-27075" yWindow="2880" windowWidth="24480" windowHeight="13695" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MDGF!$A$1:$E$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MDGF!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="181029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Child</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>L000010039</t>
-  </si>
-  <si>
     <t>L000009966</t>
   </si>
   <si>
@@ -48,12 +45,6 @@
     <t>L000010042</t>
   </si>
   <si>
-    <t>G000000909</t>
-  </si>
-  <si>
-    <t>G000000914</t>
-  </si>
-  <si>
     <t>L000005348</t>
   </si>
   <si>
@@ -63,18 +54,6 @@
     <t>L000010020</t>
   </si>
   <si>
-    <t>1919TQSZ91</t>
-  </si>
-  <si>
-    <t>1919TQSZ92</t>
-  </si>
-  <si>
-    <t>1919TQSZ95</t>
-  </si>
-  <si>
-    <t>1919TQSZ93</t>
-  </si>
-  <si>
     <t>2012TQDZ91</t>
   </si>
   <si>
@@ -121,15 +100,6 @@
   </si>
   <si>
     <t>AE50C0LS03</t>
-  </si>
-  <si>
-    <t>DE10568124</t>
-  </si>
-  <si>
-    <t>DE20568129</t>
-  </si>
-  <si>
-    <t>DE10538650</t>
   </si>
 </sst>
 </file>
@@ -481,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,71 +474,71 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -576,114 +546,58 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -693,14 +607,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -881,21 +793,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -920,9 +831,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB0CA0A-265E-4F3B-B0E1-9A540F7D4E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51301582-9EA8-469C-83F9-E22433C781F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27075" yWindow="2880" windowWidth="24480" windowHeight="13695" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MDGF!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MDGF!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Child</t>
   </si>
@@ -36,70 +36,16 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>L000009966</t>
+    <t>KR03L10000</t>
   </si>
   <si>
-    <t>L000009969</t>
+    <t>KR03Z02185</t>
   </si>
   <si>
-    <t>L000010042</t>
+    <t>P000000575</t>
   </si>
   <si>
-    <t>L000005348</t>
-  </si>
-  <si>
-    <t>L000008784</t>
-  </si>
-  <si>
-    <t>L000010020</t>
-  </si>
-  <si>
-    <t>2012TQDZ91</t>
-  </si>
-  <si>
-    <t>2013TQFZ91</t>
-  </si>
-  <si>
-    <t>2025TQMZ92</t>
-  </si>
-  <si>
-    <t>2053TQNZ90</t>
-  </si>
-  <si>
-    <t>2137TPM813</t>
-  </si>
-  <si>
-    <t>2137TPM819</t>
-  </si>
-  <si>
-    <t>2137TKAZ90</t>
-  </si>
-  <si>
-    <t>2137TQMZ94</t>
-  </si>
-  <si>
-    <t>DE10B55000</t>
-  </si>
-  <si>
-    <t>1756L80911</t>
-  </si>
-  <si>
-    <t>1756C01658</t>
-  </si>
-  <si>
-    <t>1756C05742</t>
-  </si>
-  <si>
-    <t>2148C00002</t>
-  </si>
-  <si>
-    <t>AE50C0LS01</t>
-  </si>
-  <si>
-    <t>AE50C0LS02</t>
-  </si>
-  <si>
-    <t>AE50C0LS03</t>
+    <t>P000000653</t>
   </si>
 </sst>
 </file>
@@ -451,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,130 +420,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -616,6 +450,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -792,17 +637,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
   <ds:schemaRefs>
@@ -812,6 +646,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -828,15 +673,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51301582-9EA8-469C-83F9-E22433C781F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A559F4C-1B14-4DF7-8FE2-F87CDE905905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-26205" yWindow="1290" windowWidth="24480" windowHeight="13695" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Child</t>
   </si>
@@ -36,16 +36,10 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>KR03L10000</t>
+    <t>G000000404</t>
   </si>
   <si>
-    <t>KR03Z02185</t>
-  </si>
-  <si>
-    <t>P000000575</t>
-  </si>
-  <si>
-    <t>P000000653</t>
+    <t>G000000873</t>
   </si>
 </sst>
 </file>
@@ -400,7 +394,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,17 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -441,26 +428,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -637,26 +604,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -673,4 +641,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A559F4C-1B14-4DF7-8FE2-F87CDE905905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FB50F6-1A73-4BB8-94BA-3F98483BC704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26205" yWindow="1290" windowWidth="24480" windowHeight="13695" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Child</t>
   </si>
@@ -36,10 +36,22 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>G000000404</t>
-  </si>
-  <si>
-    <t>G000000873</t>
+    <t>P000000062</t>
+  </si>
+  <si>
+    <t>P000000066</t>
+  </si>
+  <si>
+    <t>P000000072</t>
+  </si>
+  <si>
+    <t>P000000074</t>
+  </si>
+  <si>
+    <t>P000000057</t>
+  </si>
+  <si>
+    <t>P000000069</t>
   </si>
 </sst>
 </file>
@@ -391,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,10 +429,33 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -428,6 +463,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -604,27 +659,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -641,23 +695,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FB50F6-1A73-4BB8-94BA-3F98483BC704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83731B88-0346-4A55-9F1A-BF4C413D6B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-27225" yWindow="1155" windowWidth="24480" windowHeight="13695" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MDGF!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Child</t>
   </si>
@@ -36,22 +36,25 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>P000000062</t>
-  </si>
-  <si>
-    <t>P000000066</t>
-  </si>
-  <si>
-    <t>P000000072</t>
-  </si>
-  <si>
-    <t>P000000074</t>
-  </si>
-  <si>
-    <t>P000000057</t>
-  </si>
-  <si>
-    <t>P000000069</t>
+    <t>ES50C06874</t>
+  </si>
+  <si>
+    <t>NL50C06878</t>
+  </si>
+  <si>
+    <t>DE50C06878</t>
+  </si>
+  <si>
+    <t>DE50C06877</t>
+  </si>
+  <si>
+    <t>DE50C06874</t>
+  </si>
+  <si>
+    <t>CN50C00307</t>
+  </si>
+  <si>
+    <t>H000004379</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,15 +432,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -453,7 +456,23 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -463,26 +482,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -659,26 +658,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -695,4 +695,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83731B88-0346-4A55-9F1A-BF4C413D6B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E68FFE-A68E-48D1-8C84-1F263943E908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27225" yWindow="1155" windowWidth="24480" windowHeight="13695" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="32595" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Child</t>
   </si>
@@ -40,18 +40,6 @@
   </si>
   <si>
     <t>NL50C06878</t>
-  </si>
-  <si>
-    <t>DE50C06878</t>
-  </si>
-  <si>
-    <t>DE50C06877</t>
-  </si>
-  <si>
-    <t>DE50C06874</t>
-  </si>
-  <si>
-    <t>CN50C00307</t>
   </si>
   <si>
     <t>H000004379</t>
@@ -406,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -440,39 +428,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -482,6 +438,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -658,17 +625,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -679,6 +635,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -697,17 +664,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
   <ds:schemaRefs>

--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E68FFE-A68E-48D1-8C84-1F263943E908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470C602D-919A-4450-AB2A-AD15E8D9EB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32595" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="32940" yWindow="2595" windowWidth="12285" windowHeight="11385" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MDGF!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Child</t>
   </si>
@@ -36,13 +47,31 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>ES50C06874</t>
-  </si>
-  <si>
-    <t>NL50C06878</t>
-  </si>
-  <si>
-    <t>H000004379</t>
+    <t>1919GHR018</t>
+  </si>
+  <si>
+    <t>2010GHR018</t>
+  </si>
+  <si>
+    <t>2013GHR018</t>
+  </si>
+  <si>
+    <t>2029GHR019</t>
+  </si>
+  <si>
+    <t>2032GHR018</t>
+  </si>
+  <si>
+    <t>2053GHR018</t>
+  </si>
+  <si>
+    <t>DE10663103</t>
+  </si>
+  <si>
+    <t>G000001227</t>
+  </si>
+  <si>
+    <t>G000001107</t>
   </si>
 </sst>
 </file>
@@ -394,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +449,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -428,7 +457,47 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -438,14 +507,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,21 +693,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -665,9 +731,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470C602D-919A-4450-AB2A-AD15E8D9EB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A1ECE0-5CC0-4633-BF3F-8D55900CD8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32940" yWindow="2595" windowWidth="12285" windowHeight="11385" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="36705" yWindow="7980" windowWidth="21600" windowHeight="11385" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MDGF!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Child</t>
   </si>
@@ -47,31 +47,28 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>1919GHR018</t>
-  </si>
-  <si>
-    <t>2010GHR018</t>
-  </si>
-  <si>
-    <t>2013GHR018</t>
-  </si>
-  <si>
-    <t>2029GHR019</t>
-  </si>
-  <si>
-    <t>2032GHR018</t>
-  </si>
-  <si>
-    <t>2053GHR018</t>
-  </si>
-  <si>
-    <t>DE10663103</t>
-  </si>
-  <si>
-    <t>G000001227</t>
-  </si>
-  <si>
-    <t>G000001107</t>
+    <t>G000000868</t>
+  </si>
+  <si>
+    <t>G000000497</t>
+  </si>
+  <si>
+    <t>G000000515</t>
+  </si>
+  <si>
+    <t>G000001067</t>
+  </si>
+  <si>
+    <t>G000000891</t>
+  </si>
+  <si>
+    <t>G000000873</t>
+  </si>
+  <si>
+    <t>G000000359</t>
+  </si>
+  <si>
+    <t>G000001069</t>
   </si>
 </sst>
 </file>
@@ -423,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,58 +443,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -507,15 +496,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -692,6 +672,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -704,14 +693,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -730,6 +711,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
   <ds:schemaRefs>

--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A1ECE0-5CC0-4633-BF3F-8D55900CD8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4577ED46-C74B-4341-9D04-F5A27E58CEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36705" yWindow="7980" windowWidth="21600" windowHeight="11385" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MDGF!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Child</t>
   </si>
@@ -47,28 +48,100 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>G000000868</t>
-  </si>
-  <si>
-    <t>G000000497</t>
-  </si>
-  <si>
-    <t>G000000515</t>
-  </si>
-  <si>
-    <t>G000001067</t>
-  </si>
-  <si>
-    <t>G000000891</t>
-  </si>
-  <si>
-    <t>G000000873</t>
-  </si>
-  <si>
-    <t>G000000359</t>
-  </si>
-  <si>
-    <t>G000001069</t>
+    <t>CN09O05009</t>
+  </si>
+  <si>
+    <t>CN10O05001</t>
+  </si>
+  <si>
+    <t>CN43O05003</t>
+  </si>
+  <si>
+    <t>DE10O05003</t>
+  </si>
+  <si>
+    <t>DE10O05004</t>
+  </si>
+  <si>
+    <t>IE10O05003</t>
+  </si>
+  <si>
+    <t>IE10O05004</t>
+  </si>
+  <si>
+    <t>IL10O05003</t>
+  </si>
+  <si>
+    <t>IT07O05003</t>
+  </si>
+  <si>
+    <t>KR07O05017</t>
+  </si>
+  <si>
+    <t>KR07O05018</t>
+  </si>
+  <si>
+    <t>KR07O05020</t>
+  </si>
+  <si>
+    <t>KR08O05004</t>
+  </si>
+  <si>
+    <t>KR08O05005</t>
+  </si>
+  <si>
+    <t>KR11O05003</t>
+  </si>
+  <si>
+    <t>KR11O05004</t>
+  </si>
+  <si>
+    <t>KR15O05003</t>
+  </si>
+  <si>
+    <t>KR15O05004</t>
+  </si>
+  <si>
+    <t>KR16O05003</t>
+  </si>
+  <si>
+    <t>KR16O05004</t>
+  </si>
+  <si>
+    <t>NL10O05008</t>
+  </si>
+  <si>
+    <t>NL10O05009</t>
+  </si>
+  <si>
+    <t>TW10O05009</t>
+  </si>
+  <si>
+    <t>TW10O05010</t>
+  </si>
+  <si>
+    <t>TW91O05007</t>
+  </si>
+  <si>
+    <t>TW91O05008</t>
+  </si>
+  <si>
+    <t>TW91O05010</t>
+  </si>
+  <si>
+    <t>US10O05064</t>
+  </si>
+  <si>
+    <t>US10O05065</t>
+  </si>
+  <si>
+    <t>US10O05067</t>
+  </si>
+  <si>
+    <t>O000000005</t>
+  </si>
+  <si>
+    <t>nada</t>
   </si>
 </sst>
 </file>
@@ -420,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,50 +516,234 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +752,51 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2AE81D-97EB-41F7-A66C-468923055251}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -672,27 +973,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -709,23 +1009,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M289204\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4577ED46-C74B-4341-9D04-F5A27E58CEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823B3E17-A929-4239-8B12-9EBF308B7448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="17700" yWindow="8205" windowWidth="12135" windowHeight="13695" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MDGF!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Child</t>
   </si>
@@ -48,100 +37,70 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>CN09O05009</t>
-  </si>
-  <si>
-    <t>CN10O05001</t>
-  </si>
-  <si>
-    <t>CN43O05003</t>
-  </si>
-  <si>
     <t>DE10O05003</t>
   </si>
   <si>
-    <t>DE10O05004</t>
-  </si>
-  <si>
-    <t>IE10O05003</t>
-  </si>
-  <si>
-    <t>IE10O05004</t>
-  </si>
-  <si>
-    <t>IL10O05003</t>
-  </si>
-  <si>
-    <t>IT07O05003</t>
-  </si>
-  <si>
-    <t>KR07O05017</t>
-  </si>
-  <si>
-    <t>KR07O05018</t>
-  </si>
-  <si>
-    <t>KR07O05020</t>
-  </si>
-  <si>
-    <t>KR08O05004</t>
-  </si>
-  <si>
-    <t>KR08O05005</t>
-  </si>
-  <si>
-    <t>KR11O05003</t>
-  </si>
-  <si>
-    <t>KR11O05004</t>
-  </si>
-  <si>
-    <t>KR15O05003</t>
-  </si>
-  <si>
-    <t>KR15O05004</t>
-  </si>
-  <si>
-    <t>KR16O05003</t>
-  </si>
-  <si>
-    <t>KR16O05004</t>
-  </si>
-  <si>
-    <t>NL10O05008</t>
-  </si>
-  <si>
-    <t>NL10O05009</t>
-  </si>
-  <si>
-    <t>TW10O05009</t>
-  </si>
-  <si>
-    <t>TW10O05010</t>
-  </si>
-  <si>
-    <t>TW91O05007</t>
-  </si>
-  <si>
-    <t>TW91O05008</t>
-  </si>
-  <si>
-    <t>TW91O05010</t>
-  </si>
-  <si>
-    <t>US10O05064</t>
-  </si>
-  <si>
-    <t>US10O05065</t>
-  </si>
-  <si>
-    <t>US10O05067</t>
-  </si>
-  <si>
     <t>O000000005</t>
   </si>
   <si>
     <t>nada</t>
+  </si>
+  <si>
+    <t>TW10GCO500</t>
+  </si>
+  <si>
+    <t>TW10GFM000</t>
+  </si>
+  <si>
+    <t>TW10GHR012</t>
+  </si>
+  <si>
+    <t>TW10GHR005</t>
+  </si>
+  <si>
+    <t>TW10GLE006</t>
+  </si>
+  <si>
+    <t>TW10GGS002</t>
+  </si>
+  <si>
+    <t>TW10GPO002</t>
+  </si>
+  <si>
+    <t>TW91GFM000</t>
+  </si>
+  <si>
+    <t>TW91GHR012</t>
+  </si>
+  <si>
+    <t>TW91GHR005</t>
+  </si>
+  <si>
+    <t>TW91GLE006</t>
+  </si>
+  <si>
+    <t>TW91GGS002</t>
+  </si>
+  <si>
+    <t>TW10GM1050</t>
+  </si>
+  <si>
+    <t>US10GBT022</t>
+  </si>
+  <si>
+    <t>CN10GM2006</t>
+  </si>
+  <si>
+    <t>DE10669656</t>
+  </si>
+  <si>
+    <t>O000000007</t>
+  </si>
+  <si>
+    <t>G000000722</t>
+  </si>
+  <si>
+    <t>G000001262</t>
   </si>
 </sst>
 </file>
@@ -493,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,234 +475,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
         <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -762,13 +617,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -777,26 +632,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -973,26 +808,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1009,4 +845,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823B3E17-A929-4239-8B12-9EBF308B7448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CB9A5D-64EC-45A2-8F9A-4E83988C8F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="8205" windowWidth="12135" windowHeight="13695" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-27765" yWindow="1620" windowWidth="20700" windowHeight="13695" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Child</t>
   </si>
@@ -46,61 +46,25 @@
     <t>nada</t>
   </si>
   <si>
-    <t>TW10GCO500</t>
-  </si>
-  <si>
-    <t>TW10GFM000</t>
-  </si>
-  <si>
-    <t>TW10GHR012</t>
-  </si>
-  <si>
-    <t>TW10GHR005</t>
-  </si>
-  <si>
-    <t>TW10GLE006</t>
-  </si>
-  <si>
-    <t>TW10GGS002</t>
-  </si>
-  <si>
-    <t>TW10GPO002</t>
-  </si>
-  <si>
-    <t>TW91GFM000</t>
-  </si>
-  <si>
-    <t>TW91GHR012</t>
-  </si>
-  <si>
-    <t>TW91GHR005</t>
-  </si>
-  <si>
-    <t>TW91GLE006</t>
-  </si>
-  <si>
-    <t>TW91GGS002</t>
-  </si>
-  <si>
-    <t>TW10GM1050</t>
-  </si>
-  <si>
-    <t>US10GBT022</t>
-  </si>
-  <si>
-    <t>CN10GM2006</t>
-  </si>
-  <si>
-    <t>DE10669656</t>
-  </si>
-  <si>
-    <t>O000000007</t>
-  </si>
-  <si>
-    <t>G000000722</t>
-  </si>
-  <si>
-    <t>G000001262</t>
+    <t>H000000871</t>
+  </si>
+  <si>
+    <t>H000000645</t>
+  </si>
+  <si>
+    <t>H000004242</t>
+  </si>
+  <si>
+    <t>H000004243</t>
+  </si>
+  <si>
+    <t>H000004244</t>
+  </si>
+  <si>
+    <t>H000000857</t>
+  </si>
+  <si>
+    <t>O000000009</t>
   </si>
 </sst>
 </file>
@@ -116,15 +80,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,12 +102,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,131 +457,43 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -809,6 +704,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
@@ -817,15 +721,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -848,6 +743,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -856,12 +759,4 @@
     <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CB9A5D-64EC-45A2-8F9A-4E83988C8F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E560C0-4C68-4C55-815A-1FF48C38037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27765" yWindow="1620" windowWidth="20700" windowHeight="13695" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="14865" windowHeight="13695" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Child</t>
   </si>
@@ -46,25 +46,40 @@
     <t>nada</t>
   </si>
   <si>
-    <t>H000000871</t>
-  </si>
-  <si>
-    <t>H000000645</t>
-  </si>
-  <si>
-    <t>H000004242</t>
-  </si>
-  <si>
-    <t>H000004243</t>
-  </si>
-  <si>
-    <t>H000004244</t>
-  </si>
-  <si>
-    <t>H000000857</t>
-  </si>
-  <si>
-    <t>O000000009</t>
+    <t>DE10670900</t>
+  </si>
+  <si>
+    <t>DE10669633</t>
+  </si>
+  <si>
+    <t>CN02R00402</t>
+  </si>
+  <si>
+    <t>CN01R00401</t>
+  </si>
+  <si>
+    <t>CN09R00000</t>
+  </si>
+  <si>
+    <t>CN01R00403</t>
+  </si>
+  <si>
+    <t>CN01R00402</t>
+  </si>
+  <si>
+    <t>DE04C00510</t>
+  </si>
+  <si>
+    <t>G000001222</t>
+  </si>
+  <si>
+    <t>G000001221</t>
+  </si>
+  <si>
+    <t>P000000573</t>
+  </si>
+  <si>
+    <t>P000001183</t>
   </si>
 </sst>
 </file>
@@ -80,21 +95,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -102,25 +111,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,43 +453,75 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -704,15 +732,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
@@ -721,6 +740,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -743,14 +771,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -759,4 +779,12 @@
     <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E560C0-4C68-4C55-815A-1FF48C38037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCC8855-8F3F-401D-82E7-40DB64AEFC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="14865" windowHeight="13695" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MDGF!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Child</t>
   </si>
@@ -46,40 +47,31 @@
     <t>nada</t>
   </si>
   <si>
-    <t>DE10670900</t>
-  </si>
-  <si>
-    <t>DE10669633</t>
-  </si>
-  <si>
-    <t>CN02R00402</t>
-  </si>
-  <si>
-    <t>CN01R00401</t>
-  </si>
-  <si>
-    <t>CN09R00000</t>
-  </si>
-  <si>
-    <t>CN01R00403</t>
-  </si>
-  <si>
-    <t>CN01R00402</t>
-  </si>
-  <si>
-    <t>DE04C00510</t>
-  </si>
-  <si>
-    <t>G000001222</t>
-  </si>
-  <si>
-    <t>G000001221</t>
-  </si>
-  <si>
-    <t>P000000573</t>
-  </si>
-  <si>
-    <t>P000001183</t>
+    <t>H000004364</t>
+  </si>
+  <si>
+    <t>H000000507</t>
+  </si>
+  <si>
+    <t>H000000746</t>
+  </si>
+  <si>
+    <t>H000000964</t>
+  </si>
+  <si>
+    <t>H000000747</t>
+  </si>
+  <si>
+    <t>H000000748</t>
+  </si>
+  <si>
+    <t>H000000749</t>
+  </si>
+  <si>
+    <t>H000000750</t>
+  </si>
+  <si>
+    <t>H000000751</t>
   </si>
 </sst>
 </file>
@@ -431,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,74 +446,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -532,13 +500,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2AE81D-97EB-41F7-A66C-468923055251}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -547,6 +517,19 @@
       </c>
       <c r="C1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>24474667</v>
       </c>
     </row>
   </sheetData>
@@ -555,6 +538,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -731,27 +734,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -768,23 +770,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCC8855-8F3F-401D-82E7-40DB64AEFC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A1161F-4714-4CAB-9A07-FA3955FF22F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="14970" windowHeight="14610" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MDGF!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Child</t>
   </si>
@@ -53,25 +52,58 @@
     <t>H000000507</t>
   </si>
   <si>
-    <t>H000000746</t>
-  </si>
-  <si>
-    <t>H000000964</t>
-  </si>
-  <si>
-    <t>H000000747</t>
-  </si>
-  <si>
-    <t>H000000748</t>
-  </si>
-  <si>
-    <t>H000000749</t>
-  </si>
-  <si>
-    <t>H000000750</t>
-  </si>
-  <si>
-    <t>H000000751</t>
+    <t>KR07C0E016</t>
+  </si>
+  <si>
+    <t>KR07C0E017</t>
+  </si>
+  <si>
+    <t>KR07C0E018</t>
+  </si>
+  <si>
+    <t>KR07C0E019</t>
+  </si>
+  <si>
+    <t>KR07TAE001</t>
+  </si>
+  <si>
+    <t>KR07TAE002</t>
+  </si>
+  <si>
+    <t>KR07TAE003</t>
+  </si>
+  <si>
+    <t>KR07TAE004</t>
+  </si>
+  <si>
+    <t>KR07TAE005</t>
+  </si>
+  <si>
+    <t>KR07TAE006</t>
+  </si>
+  <si>
+    <t>KR07TAE007</t>
+  </si>
+  <si>
+    <t>KR07TAE008</t>
+  </si>
+  <si>
+    <t>KR07TAE009</t>
+  </si>
+  <si>
+    <t>KR07TAE010</t>
+  </si>
+  <si>
+    <t>KR07TAE011</t>
+  </si>
+  <si>
+    <t>KR07TAE012</t>
+  </si>
+  <si>
+    <t>KR07TAE013</t>
+  </si>
+  <si>
+    <t>P000000805</t>
   </si>
 </sst>
 </file>
@@ -423,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,47 +481,135 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -549,15 +669,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -734,6 +845,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
   <ds:schemaRefs>
@@ -746,14 +866,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -770,4 +882,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A1161F-4714-4CAB-9A07-FA3955FF22F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDA7981-7F4A-495A-B002-AD674B879F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="14970" windowHeight="14610" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="3825" yWindow="2445" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,31 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MDGF!$A$1:$B$1</definedName>
+    <definedName name="ID" localSheetId="0" hidden="1">"a5f5822f-2145-4cc3-aa32-d164ed237772"</definedName>
+    <definedName name="ID" localSheetId="1" hidden="1">"05661e21-9295-4e92-9230-f5f844726f3a"</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Child</t>
   </si>
@@ -52,58 +65,25 @@
     <t>H000000507</t>
   </si>
   <si>
-    <t>KR07C0E016</t>
-  </si>
-  <si>
-    <t>KR07C0E017</t>
-  </si>
-  <si>
-    <t>KR07C0E018</t>
-  </si>
-  <si>
-    <t>KR07C0E019</t>
-  </si>
-  <si>
-    <t>KR07TAE001</t>
-  </si>
-  <si>
-    <t>KR07TAE002</t>
-  </si>
-  <si>
-    <t>KR07TAE003</t>
-  </si>
-  <si>
-    <t>KR07TAE004</t>
-  </si>
-  <si>
-    <t>KR07TAE005</t>
-  </si>
-  <si>
-    <t>KR07TAE006</t>
-  </si>
-  <si>
-    <t>KR07TAE007</t>
-  </si>
-  <si>
-    <t>KR07TAE008</t>
-  </si>
-  <si>
-    <t>KR07TAE009</t>
-  </si>
-  <si>
-    <t>KR07TAE010</t>
-  </si>
-  <si>
-    <t>KR07TAE011</t>
-  </si>
-  <si>
-    <t>KR07TAE012</t>
-  </si>
-  <si>
-    <t>KR07TAE013</t>
-  </si>
-  <si>
-    <t>P000000805</t>
+    <t>CN90GIT204</t>
+  </si>
+  <si>
+    <t>DE10GIT02F</t>
+  </si>
+  <si>
+    <t>2123GIT00F</t>
+  </si>
+  <si>
+    <t>US10GIT036</t>
+  </si>
+  <si>
+    <t>ES50GIT373</t>
+  </si>
+  <si>
+    <t>G000000279</t>
+  </si>
+  <si>
+    <t>H000000966</t>
   </si>
 </sst>
 </file>
@@ -455,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +461,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,7 +469,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -497,7 +477,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -505,7 +485,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -513,108 +493,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -654,21 +542,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -845,6 +725,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -855,17 +746,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -884,6 +764,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
   <ds:schemaRefs>

--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDA7981-7F4A-495A-B002-AD674B879F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51FF2F0-8DCF-4605-AD27-B965CC20C8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="2445" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -21,28 +21,17 @@
     <definedName name="ID" localSheetId="0" hidden="1">"a5f5822f-2145-4cc3-aa32-d164ed237772"</definedName>
     <definedName name="ID" localSheetId="1" hidden="1">"05661e21-9295-4e92-9230-f5f844726f3a"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Child</t>
   </si>
@@ -65,25 +54,67 @@
     <t>H000000507</t>
   </si>
   <si>
-    <t>CN90GIT204</t>
-  </si>
-  <si>
-    <t>DE10GIT02F</t>
-  </si>
-  <si>
-    <t>2123GIT00F</t>
-  </si>
-  <si>
-    <t>US10GIT036</t>
-  </si>
-  <si>
-    <t>ES50GIT373</t>
-  </si>
-  <si>
-    <t>G000000279</t>
-  </si>
-  <si>
-    <t>H000000966</t>
+    <t>2123TMJZ90</t>
+  </si>
+  <si>
+    <t>2011L30001</t>
+  </si>
+  <si>
+    <t>2034C05319</t>
+  </si>
+  <si>
+    <t>1756C07349</t>
+  </si>
+  <si>
+    <t>1919C05632</t>
+  </si>
+  <si>
+    <t>2102TFSZ63</t>
+  </si>
+  <si>
+    <t>2102TMSZ92</t>
+  </si>
+  <si>
+    <t>2102TMSZ95</t>
+  </si>
+  <si>
+    <t>2131C00802</t>
+  </si>
+  <si>
+    <t>2131C00003</t>
+  </si>
+  <si>
+    <t>2131C00009</t>
+  </si>
+  <si>
+    <t>2131C00857</t>
+  </si>
+  <si>
+    <t>DE10624417</t>
+  </si>
+  <si>
+    <t>L000009224</t>
+  </si>
+  <si>
+    <t>L000008912</t>
+  </si>
+  <si>
+    <t>L000008712</t>
+  </si>
+  <si>
+    <t>L000010608</t>
+  </si>
+  <si>
+    <t>L000008420</t>
+  </si>
+  <si>
+    <t>L000008428</t>
+  </si>
+  <si>
+    <t>L000008439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G000001003 </t>
   </si>
 </sst>
 </file>
@@ -435,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +492,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,7 +508,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -485,7 +516,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -493,7 +524,71 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -549,6 +644,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -725,27 +840,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -762,23 +876,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51FF2F0-8DCF-4605-AD27-B965CC20C8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD3D111-8763-460A-8C15-F8D657091130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="4755" yWindow="2700" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,28 @@
     <definedName name="ID" localSheetId="0" hidden="1">"a5f5822f-2145-4cc3-aa32-d164ed237772"</definedName>
     <definedName name="ID" localSheetId="1" hidden="1">"05661e21-9295-4e92-9230-f5f844726f3a"</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Child</t>
   </si>
@@ -54,67 +65,100 @@
     <t>H000000507</t>
   </si>
   <si>
-    <t>2123TMJZ90</t>
-  </si>
-  <si>
-    <t>2011L30001</t>
-  </si>
-  <si>
-    <t>2034C05319</t>
-  </si>
-  <si>
-    <t>1756C07349</t>
-  </si>
-  <si>
-    <t>1919C05632</t>
-  </si>
-  <si>
-    <t>2102TFSZ63</t>
-  </si>
-  <si>
-    <t>2102TMSZ92</t>
-  </si>
-  <si>
-    <t>2102TMSZ95</t>
-  </si>
-  <si>
-    <t>2131C00802</t>
-  </si>
-  <si>
-    <t>2131C00003</t>
-  </si>
-  <si>
-    <t>2131C00009</t>
-  </si>
-  <si>
-    <t>2131C00857</t>
-  </si>
-  <si>
-    <t>DE10624417</t>
-  </si>
-  <si>
-    <t>L000009224</t>
-  </si>
-  <si>
-    <t>L000008912</t>
-  </si>
-  <si>
-    <t>L000008712</t>
-  </si>
-  <si>
-    <t>L000010608</t>
-  </si>
-  <si>
-    <t>L000008420</t>
-  </si>
-  <si>
-    <t>L000008428</t>
-  </si>
-  <si>
-    <t>L000008439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G000001003 </t>
+    <t>CN01C00214</t>
+  </si>
+  <si>
+    <t>CN90Z03717</t>
+  </si>
+  <si>
+    <t>CN01C00215</t>
+  </si>
+  <si>
+    <t>CN01C00213</t>
+  </si>
+  <si>
+    <t>CN01C00271</t>
+  </si>
+  <si>
+    <t>CN01C00312</t>
+  </si>
+  <si>
+    <t>CN01C00212</t>
+  </si>
+  <si>
+    <t>CN01OF0162</t>
+  </si>
+  <si>
+    <t>TW02OF0323</t>
+  </si>
+  <si>
+    <t>IN01OF0303</t>
+  </si>
+  <si>
+    <t>JP01C0M121</t>
+  </si>
+  <si>
+    <t>KR03OF0304</t>
+  </si>
+  <si>
+    <t>TW02C00211</t>
+  </si>
+  <si>
+    <t>IN01C00101</t>
+  </si>
+  <si>
+    <t>IN01C00102</t>
+  </si>
+  <si>
+    <t>IN01C00202</t>
+  </si>
+  <si>
+    <t>IN01C00205</t>
+  </si>
+  <si>
+    <t>IN01OF0306</t>
+  </si>
+  <si>
+    <t>IN01OF0501</t>
+  </si>
+  <si>
+    <t>IN01OF0502</t>
+  </si>
+  <si>
+    <t>KR07C0E020</t>
+  </si>
+  <si>
+    <t>KR07C0E021</t>
+  </si>
+  <si>
+    <t>KR07TAE014</t>
+  </si>
+  <si>
+    <t>KR07TAE015</t>
+  </si>
+  <si>
+    <t>KR07TBE001</t>
+  </si>
+  <si>
+    <t>KR07TCE001</t>
+  </si>
+  <si>
+    <t>KR07TQE001</t>
+  </si>
+  <si>
+    <t>P000000044</t>
+  </si>
+  <si>
+    <t>P000000667</t>
+  </si>
+  <si>
+    <t>P000000669</t>
+  </si>
+  <si>
+    <t>P000000670</t>
+  </si>
+  <si>
+    <t>P000000805</t>
   </si>
 </sst>
 </file>
@@ -466,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +536,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -500,7 +544,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -508,7 +552,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +568,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,7 +584,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +592,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +600,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +608,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,7 +616,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +624,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +632,119 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -644,26 +800,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -840,26 +976,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -876,4 +1013,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD3D111-8763-460A-8C15-F8D657091130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F923C2-A86C-40A5-9C82-5D2B6D91848A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="2700" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Child</t>
   </si>
@@ -65,42 +65,6 @@
     <t>H000000507</t>
   </si>
   <si>
-    <t>CN01C00214</t>
-  </si>
-  <si>
-    <t>CN90Z03717</t>
-  </si>
-  <si>
-    <t>CN01C00215</t>
-  </si>
-  <si>
-    <t>CN01C00213</t>
-  </si>
-  <si>
-    <t>CN01C00271</t>
-  </si>
-  <si>
-    <t>CN01C00312</t>
-  </si>
-  <si>
-    <t>CN01C00212</t>
-  </si>
-  <si>
-    <t>CN01OF0162</t>
-  </si>
-  <si>
-    <t>TW02OF0323</t>
-  </si>
-  <si>
-    <t>IN01OF0303</t>
-  </si>
-  <si>
-    <t>JP01C0M121</t>
-  </si>
-  <si>
-    <t>KR03OF0304</t>
-  </si>
-  <si>
     <t>TW02C00211</t>
   </si>
   <si>
@@ -144,12 +108,6 @@
   </si>
   <si>
     <t>KR07TQE001</t>
-  </si>
-  <si>
-    <t>P000000044</t>
-  </si>
-  <si>
-    <t>P000000667</t>
   </si>
   <si>
     <t>P000000669</t>
@@ -510,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -544,7 +502,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -552,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -560,7 +518,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -568,7 +526,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -576,7 +534,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -584,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,7 +550,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -600,7 +558,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -608,7 +566,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -616,7 +574,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,7 +582,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,7 +598,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -648,103 +606,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
         <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -800,6 +662,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -976,27 +858,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1013,23 +894,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD3D111-8763-460A-8C15-F8D657091130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE255C5-58D9-4DEF-865E-4F79B9ED57E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="2700" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-17115" yWindow="1620" windowWidth="14970" windowHeight="14610" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -21,28 +21,17 @@
     <definedName name="ID" localSheetId="0" hidden="1">"a5f5822f-2145-4cc3-aa32-d164ed237772"</definedName>
     <definedName name="ID" localSheetId="1" hidden="1">"05661e21-9295-4e92-9230-f5f844726f3a"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="90">
   <si>
     <t>Child</t>
   </si>
@@ -65,100 +54,253 @@
     <t>H000000507</t>
   </si>
   <si>
-    <t>CN01C00214</t>
-  </si>
-  <si>
-    <t>CN90Z03717</t>
-  </si>
-  <si>
-    <t>CN01C00215</t>
-  </si>
-  <si>
-    <t>CN01C00213</t>
-  </si>
-  <si>
-    <t>CN01C00271</t>
-  </si>
-  <si>
-    <t>CN01C00312</t>
-  </si>
-  <si>
-    <t>CN01C00212</t>
-  </si>
-  <si>
-    <t>CN01OF0162</t>
-  </si>
-  <si>
-    <t>TW02OF0323</t>
-  </si>
-  <si>
-    <t>IN01OF0303</t>
-  </si>
-  <si>
-    <t>JP01C0M121</t>
-  </si>
-  <si>
-    <t>KR03OF0304</t>
-  </si>
-  <si>
-    <t>TW02C00211</t>
-  </si>
-  <si>
-    <t>IN01C00101</t>
-  </si>
-  <si>
-    <t>IN01C00102</t>
-  </si>
-  <si>
-    <t>IN01C00202</t>
-  </si>
-  <si>
-    <t>IN01C00205</t>
-  </si>
-  <si>
-    <t>IN01OF0306</t>
-  </si>
-  <si>
-    <t>IN01OF0501</t>
-  </si>
-  <si>
-    <t>IN01OF0502</t>
-  </si>
-  <si>
-    <t>KR07C0E020</t>
-  </si>
-  <si>
-    <t>KR07C0E021</t>
-  </si>
-  <si>
-    <t>KR07TAE014</t>
-  </si>
-  <si>
-    <t>KR07TAE015</t>
-  </si>
-  <si>
-    <t>KR07TBE001</t>
-  </si>
-  <si>
-    <t>KR07TCE001</t>
-  </si>
-  <si>
-    <t>KR07TQE001</t>
-  </si>
-  <si>
-    <t>P000000044</t>
-  </si>
-  <si>
-    <t>P000000667</t>
-  </si>
-  <si>
-    <t>P000000669</t>
-  </si>
-  <si>
-    <t>P000000670</t>
-  </si>
-  <si>
-    <t>P000000805</t>
+    <t>L000012394</t>
+  </si>
+  <si>
+    <t>L000012395</t>
+  </si>
+  <si>
+    <t>L000006432</t>
+  </si>
+  <si>
+    <t>L000006303</t>
+  </si>
+  <si>
+    <t>L000006306</t>
+  </si>
+  <si>
+    <t>L000006349</t>
+  </si>
+  <si>
+    <t>L000006308</t>
+  </si>
+  <si>
+    <t>L000006309</t>
+  </si>
+  <si>
+    <t>L000006310</t>
+  </si>
+  <si>
+    <t>L000006313</t>
+  </si>
+  <si>
+    <t>L000006314</t>
+  </si>
+  <si>
+    <t>L000006316</t>
+  </si>
+  <si>
+    <t>L000006317</t>
+  </si>
+  <si>
+    <t>L000006336</t>
+  </si>
+  <si>
+    <t>L000006337</t>
+  </si>
+  <si>
+    <t>L000011460</t>
+  </si>
+  <si>
+    <t>L000012533</t>
+  </si>
+  <si>
+    <t>L000012631</t>
+  </si>
+  <si>
+    <t>L000012759</t>
+  </si>
+  <si>
+    <t>L000011696</t>
+  </si>
+  <si>
+    <t>L000013292</t>
+  </si>
+  <si>
+    <t>L000006391</t>
+  </si>
+  <si>
+    <t>L000006420</t>
+  </si>
+  <si>
+    <t>L000006496</t>
+  </si>
+  <si>
+    <t>L000011470</t>
+  </si>
+  <si>
+    <t>L000013666</t>
+  </si>
+  <si>
+    <t>L000006936</t>
+  </si>
+  <si>
+    <t>L000007043</t>
+  </si>
+  <si>
+    <t>L000011506</t>
+  </si>
+  <si>
+    <t>L000013174</t>
+  </si>
+  <si>
+    <t>L000007553</t>
+  </si>
+  <si>
+    <t>L000007575</t>
+  </si>
+  <si>
+    <t>L000012763</t>
+  </si>
+  <si>
+    <t>L000011464</t>
+  </si>
+  <si>
+    <t>L000013475</t>
+  </si>
+  <si>
+    <t>L000012195</t>
+  </si>
+  <si>
+    <t>L000012196</t>
+  </si>
+  <si>
+    <t>L000012197</t>
+  </si>
+  <si>
+    <t>L000012198</t>
+  </si>
+  <si>
+    <t>L000012199</t>
+  </si>
+  <si>
+    <t>L000012200</t>
+  </si>
+  <si>
+    <t>L000012201</t>
+  </si>
+  <si>
+    <t>L000012202</t>
+  </si>
+  <si>
+    <t>L000012203</t>
+  </si>
+  <si>
+    <t>L000012204</t>
+  </si>
+  <si>
+    <t>L000012205</t>
+  </si>
+  <si>
+    <t>L000012206</t>
+  </si>
+  <si>
+    <t>L000009965</t>
+  </si>
+  <si>
+    <t>L000012428</t>
+  </si>
+  <si>
+    <t>L000011338</t>
+  </si>
+  <si>
+    <t>L000007803</t>
+  </si>
+  <si>
+    <t>L000013214</t>
+  </si>
+  <si>
+    <t>L000012792</t>
+  </si>
+  <si>
+    <t>L000008395</t>
+  </si>
+  <si>
+    <t>L000008397</t>
+  </si>
+  <si>
+    <t>L000008404</t>
+  </si>
+  <si>
+    <t>L000008413</t>
+  </si>
+  <si>
+    <t>L000008399</t>
+  </si>
+  <si>
+    <t>L000008421</t>
+  </si>
+  <si>
+    <t>L000008425</t>
+  </si>
+  <si>
+    <t>L000008435</t>
+  </si>
+  <si>
+    <t>L000008434</t>
+  </si>
+  <si>
+    <t>L000008438</t>
+  </si>
+  <si>
+    <t>L000008440</t>
+  </si>
+  <si>
+    <t>L000013112</t>
+  </si>
+  <si>
+    <t>L000011670</t>
+  </si>
+  <si>
+    <t>L000006295</t>
+  </si>
+  <si>
+    <t>L000006935</t>
+  </si>
+  <si>
+    <t>L000013787</t>
+  </si>
+  <si>
+    <t>L000012323</t>
+  </si>
+  <si>
+    <t>L000011719</t>
+  </si>
+  <si>
+    <t>L000013519</t>
+  </si>
+  <si>
+    <t>L000013786</t>
+  </si>
+  <si>
+    <t>L000013785</t>
+  </si>
+  <si>
+    <t>L000013784</t>
+  </si>
+  <si>
+    <t>L000013783</t>
+  </si>
+  <si>
+    <t>L000013558</t>
+  </si>
+  <si>
+    <t>L000009623</t>
+  </si>
+  <si>
+    <t>L000013681</t>
+  </si>
+  <si>
+    <t>L000013687</t>
+  </si>
+  <si>
+    <t>L000013680</t>
+  </si>
+  <si>
+    <t>L000013679</t>
+  </si>
+  <si>
+    <t>L000013685</t>
   </si>
 </sst>
 </file>
@@ -510,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,218 +675,530 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -800,6 +1254,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -976,17 +1441,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -997,6 +1451,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1015,17 +1480,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
   <ds:schemaRefs>

--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE255C5-58D9-4DEF-865E-4F79B9ED57E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC2369E-8A0F-422F-9ED1-B26F2353FDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17115" yWindow="1620" windowWidth="14970" windowHeight="14610" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,28 @@
     <definedName name="ID" localSheetId="0" hidden="1">"a5f5822f-2145-4cc3-aa32-d164ed237772"</definedName>
     <definedName name="ID" localSheetId="1" hidden="1">"05661e21-9295-4e92-9230-f5f844726f3a"</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Child</t>
   </si>
@@ -54,253 +65,67 @@
     <t>H000000507</t>
   </si>
   <si>
-    <t>L000012394</t>
-  </si>
-  <si>
-    <t>L000012395</t>
-  </si>
-  <si>
-    <t>L000006432</t>
-  </si>
-  <si>
-    <t>L000006303</t>
-  </si>
-  <si>
-    <t>L000006306</t>
-  </si>
-  <si>
-    <t>L000006349</t>
-  </si>
-  <si>
-    <t>L000006308</t>
-  </si>
-  <si>
-    <t>L000006309</t>
-  </si>
-  <si>
-    <t>L000006310</t>
-  </si>
-  <si>
-    <t>L000006313</t>
-  </si>
-  <si>
-    <t>L000006314</t>
-  </si>
-  <si>
-    <t>L000006316</t>
-  </si>
-  <si>
-    <t>L000006317</t>
-  </si>
-  <si>
-    <t>L000006336</t>
-  </si>
-  <si>
-    <t>L000006337</t>
-  </si>
-  <si>
-    <t>L000011460</t>
-  </si>
-  <si>
-    <t>L000012533</t>
-  </si>
-  <si>
-    <t>L000012631</t>
-  </si>
-  <si>
-    <t>L000012759</t>
-  </si>
-  <si>
-    <t>L000011696</t>
-  </si>
-  <si>
-    <t>L000013292</t>
-  </si>
-  <si>
-    <t>L000006391</t>
-  </si>
-  <si>
-    <t>L000006420</t>
-  </si>
-  <si>
-    <t>L000006496</t>
-  </si>
-  <si>
-    <t>L000011470</t>
-  </si>
-  <si>
-    <t>L000013666</t>
-  </si>
-  <si>
-    <t>L000006936</t>
-  </si>
-  <si>
-    <t>L000007043</t>
-  </si>
-  <si>
-    <t>L000011506</t>
-  </si>
-  <si>
-    <t>L000013174</t>
-  </si>
-  <si>
-    <t>L000007553</t>
-  </si>
-  <si>
-    <t>L000007575</t>
-  </si>
-  <si>
-    <t>L000012763</t>
-  </si>
-  <si>
-    <t>L000011464</t>
-  </si>
-  <si>
-    <t>L000013475</t>
-  </si>
-  <si>
-    <t>L000012195</t>
-  </si>
-  <si>
-    <t>L000012196</t>
-  </si>
-  <si>
-    <t>L000012197</t>
-  </si>
-  <si>
-    <t>L000012198</t>
-  </si>
-  <si>
-    <t>L000012199</t>
-  </si>
-  <si>
-    <t>L000012200</t>
-  </si>
-  <si>
-    <t>L000012201</t>
-  </si>
-  <si>
-    <t>L000012202</t>
-  </si>
-  <si>
-    <t>L000012203</t>
-  </si>
-  <si>
-    <t>L000012204</t>
-  </si>
-  <si>
-    <t>L000012205</t>
-  </si>
-  <si>
-    <t>L000012206</t>
-  </si>
-  <si>
-    <t>L000009965</t>
-  </si>
-  <si>
-    <t>L000012428</t>
-  </si>
-  <si>
-    <t>L000011338</t>
-  </si>
-  <si>
-    <t>L000007803</t>
-  </si>
-  <si>
-    <t>L000013214</t>
-  </si>
-  <si>
-    <t>L000012792</t>
-  </si>
-  <si>
-    <t>L000008395</t>
-  </si>
-  <si>
-    <t>L000008397</t>
-  </si>
-  <si>
-    <t>L000008404</t>
-  </si>
-  <si>
-    <t>L000008413</t>
-  </si>
-  <si>
-    <t>L000008399</t>
-  </si>
-  <si>
-    <t>L000008421</t>
-  </si>
-  <si>
-    <t>L000008425</t>
-  </si>
-  <si>
-    <t>L000008435</t>
-  </si>
-  <si>
-    <t>L000008434</t>
-  </si>
-  <si>
-    <t>L000008438</t>
-  </si>
-  <si>
-    <t>L000008440</t>
-  </si>
-  <si>
-    <t>L000013112</t>
-  </si>
-  <si>
-    <t>L000011670</t>
-  </si>
-  <si>
-    <t>L000006295</t>
-  </si>
-  <si>
-    <t>L000006935</t>
-  </si>
-  <si>
-    <t>L000013787</t>
-  </si>
-  <si>
-    <t>L000012323</t>
-  </si>
-  <si>
-    <t>L000011719</t>
-  </si>
-  <si>
-    <t>L000013519</t>
-  </si>
-  <si>
-    <t>L000013786</t>
-  </si>
-  <si>
-    <t>L000013785</t>
-  </si>
-  <si>
-    <t>L000013784</t>
-  </si>
-  <si>
-    <t>L000013783</t>
-  </si>
-  <si>
-    <t>L000013558</t>
-  </si>
-  <si>
-    <t>L000009623</t>
-  </si>
-  <si>
-    <t>L000013681</t>
-  </si>
-  <si>
-    <t>L000013687</t>
-  </si>
-  <si>
-    <t>L000013680</t>
-  </si>
-  <si>
-    <t>L000013679</t>
-  </si>
-  <si>
-    <t>L000013685</t>
+    <t>P000000560</t>
+  </si>
+  <si>
+    <t>P000000559</t>
+  </si>
+  <si>
+    <t>P000000558</t>
+  </si>
+  <si>
+    <t>CN09Z03200</t>
+  </si>
+  <si>
+    <t>GB10Z03101</t>
+  </si>
+  <si>
+    <t>JP11Z03500</t>
+  </si>
+  <si>
+    <t>KR07O06000</t>
+  </si>
+  <si>
+    <t>KR07Z03101</t>
+  </si>
+  <si>
+    <t>KR07Z03200</t>
+  </si>
+  <si>
+    <t>KR07Z03500</t>
+  </si>
+  <si>
+    <t>KR07Z03501</t>
+  </si>
+  <si>
+    <t>KR11Z03101</t>
+  </si>
+  <si>
+    <t>NL10Z03500</t>
+  </si>
+  <si>
+    <t>SG10Z03101</t>
+  </si>
+  <si>
+    <t>SG10Z03200</t>
+  </si>
+  <si>
+    <t>SG10Z03500</t>
+  </si>
+  <si>
+    <t>TW10Z03101</t>
+  </si>
+  <si>
+    <t>TW10Z03500</t>
+  </si>
+  <si>
+    <t>TW91Z03101</t>
+  </si>
+  <si>
+    <t>TW91Z03500</t>
+  </si>
+  <si>
+    <t>US10Z03101</t>
   </si>
 </sst>
 </file>
@@ -342,7 +167,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -652,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +514,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,7 +522,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -694,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -702,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -710,7 +546,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,7 +578,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,7 +602,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +618,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +642,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,394 +650,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A19">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <customProperties>
@@ -1254,6 +709,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
@@ -1264,7 +728,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -1441,16 +905,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1461,7 +924,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1478,12 +941,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC2369E-8A0F-422F-9ED1-B26F2353FDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE80AC56-787F-4E08-A72D-E15A039B9146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Child</t>
   </si>
@@ -65,67 +65,28 @@
     <t>H000000507</t>
   </si>
   <si>
-    <t>P000000560</t>
-  </si>
-  <si>
-    <t>P000000559</t>
-  </si>
-  <si>
-    <t>P000000558</t>
-  </si>
-  <si>
-    <t>CN09Z03200</t>
-  </si>
-  <si>
-    <t>GB10Z03101</t>
-  </si>
-  <si>
-    <t>JP11Z03500</t>
-  </si>
-  <si>
-    <t>KR07O06000</t>
-  </si>
-  <si>
-    <t>KR07Z03101</t>
-  </si>
-  <si>
-    <t>KR07Z03200</t>
-  </si>
-  <si>
-    <t>KR07Z03500</t>
-  </si>
-  <si>
-    <t>KR07Z03501</t>
-  </si>
-  <si>
-    <t>KR11Z03101</t>
-  </si>
-  <si>
-    <t>NL10Z03500</t>
-  </si>
-  <si>
-    <t>SG10Z03101</t>
-  </si>
-  <si>
-    <t>SG10Z03200</t>
-  </si>
-  <si>
-    <t>SG10Z03500</t>
-  </si>
-  <si>
-    <t>TW10Z03101</t>
-  </si>
-  <si>
-    <t>TW10Z03500</t>
-  </si>
-  <si>
-    <t>TW91Z03101</t>
-  </si>
-  <si>
-    <t>TW91Z03500</t>
-  </si>
-  <si>
-    <t>US10Z03101</t>
+    <t>DE10505600</t>
+  </si>
+  <si>
+    <t>DE10624300</t>
+  </si>
+  <si>
+    <t>DE10563630</t>
+  </si>
+  <si>
+    <t>DE10537814</t>
+  </si>
+  <si>
+    <t>DE20537814</t>
+  </si>
+  <si>
+    <t>G000000868</t>
+  </si>
+  <si>
+    <t>G000000515</t>
+  </si>
+  <si>
+    <t>G000000532</t>
   </si>
 </sst>
 </file>
@@ -488,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,146 +472,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -709,26 +566,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -905,26 +742,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -941,4 +779,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C531E64A-39A4-4F95-A543-CD8579CAA6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA30921-295A-44E7-B1AC-535A89D983D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="4290" yWindow="5445" windowWidth="11520" windowHeight="12240" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Child</t>
   </si>
@@ -54,42 +54,6 @@
   </si>
   <si>
     <t>P000001195</t>
-  </si>
-  <si>
-    <t>DE20533102</t>
-  </si>
-  <si>
-    <t>DE20533103</t>
-  </si>
-  <si>
-    <t>DE20533104</t>
-  </si>
-  <si>
-    <t>DE20533105</t>
-  </si>
-  <si>
-    <t>DE20533106</t>
-  </si>
-  <si>
-    <t>DE20533108</t>
-  </si>
-  <si>
-    <t>DE20533110</t>
-  </si>
-  <si>
-    <t>DE20533111</t>
-  </si>
-  <si>
-    <t>DE20533112</t>
-  </si>
-  <si>
-    <t>DE20533113</t>
-  </si>
-  <si>
-    <t>DE20533107</t>
-  </si>
-  <si>
-    <t>DE20533109</t>
   </si>
   <si>
     <t>DE20533101</t>
@@ -507,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +492,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -536,7 +500,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -544,7 +508,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -552,7 +516,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -560,7 +524,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -568,7 +532,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -576,7 +540,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -584,7 +548,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -592,7 +556,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -600,7 +564,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -608,7 +572,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -616,7 +580,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -624,7 +588,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -632,145 +596,41 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
         <v>2</v>
       </c>
     </row>
@@ -787,17 +647,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5481AA-55DD-41F0-8076-D4F5ED7BA00E}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA30921-295A-44E7-B1AC-535A89D983D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51A0115-9239-4B02-BE4A-C267B27D594A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="5445" windowWidth="11520" windowHeight="12240" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="20250" yWindow="7605" windowWidth="11520" windowHeight="12240" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MDGF!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$5:$B$5</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"a5f5822f-2145-4cc3-aa32-d164ed237772"</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Child</t>
   </si>
@@ -38,82 +39,88 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>G000000387</t>
-  </si>
-  <si>
-    <t>G000000389</t>
-  </si>
-  <si>
-    <t>G000000392</t>
-  </si>
-  <si>
     <t>G000000397</t>
   </si>
   <si>
-    <t>P000000575</t>
-  </si>
-  <si>
-    <t>P000001195</t>
-  </si>
-  <si>
     <t>DE20533101</t>
   </si>
   <si>
     <t>DE20533114</t>
   </si>
   <si>
-    <t>DE20533115</t>
-  </si>
-  <si>
-    <t>DE20533116</t>
-  </si>
-  <si>
-    <t>DE20533117</t>
-  </si>
-  <si>
-    <t>DE20533118</t>
-  </si>
-  <si>
-    <t>DE20533119</t>
-  </si>
-  <si>
-    <t>DE20533120</t>
-  </si>
-  <si>
-    <t>DE20533121</t>
-  </si>
-  <si>
-    <t>DE20533122</t>
-  </si>
-  <si>
-    <t>DE20533123</t>
-  </si>
-  <si>
-    <t>DE20533124</t>
-  </si>
-  <si>
-    <t>DE20533125</t>
-  </si>
-  <si>
-    <t>DE20533126</t>
-  </si>
-  <si>
-    <t>DE20533127</t>
-  </si>
-  <si>
-    <t>DE20533128</t>
-  </si>
-  <si>
-    <t>DE20533129</t>
-  </si>
-  <si>
-    <t>DE20533130</t>
-  </si>
-  <si>
-    <t>DE20533131</t>
-  </si>
-  <si>
-    <t>DE20533132</t>
+    <t>NO50L93100</t>
+  </si>
+  <si>
+    <t>G000000589</t>
+  </si>
+  <si>
+    <t>SE50L93100</t>
+  </si>
+  <si>
+    <t>FI50L93100</t>
+  </si>
+  <si>
+    <t>AT50L93100</t>
+  </si>
+  <si>
+    <t>KE50R0HC22</t>
+  </si>
+  <si>
+    <t>H000000801</t>
+  </si>
+  <si>
+    <t>CZ50R00006</t>
+  </si>
+  <si>
+    <t>H000000907</t>
+  </si>
+  <si>
+    <t>ZA50GM1001</t>
+  </si>
+  <si>
+    <t>G000000189</t>
+  </si>
+  <si>
+    <t>ZA50GM5000</t>
+  </si>
+  <si>
+    <t>G000000637</t>
+  </si>
+  <si>
+    <t>SE50C00008</t>
+  </si>
+  <si>
+    <t>H000004266</t>
+  </si>
+  <si>
+    <t>SE50OF0004</t>
+  </si>
+  <si>
+    <t>H000000004</t>
+  </si>
+  <si>
+    <t>SE50GM1001</t>
+  </si>
+  <si>
+    <t>G000000630</t>
+  </si>
+  <si>
+    <t>FI50OF0006</t>
+  </si>
+  <si>
+    <t>ZA50R0RA88</t>
+  </si>
+  <si>
+    <t>H000000805</t>
+  </si>
+  <si>
+    <t>ZA50R0RA09</t>
+  </si>
+  <si>
+    <t>H000000726</t>
+  </si>
+  <si>
+    <t>sd</t>
   </si>
 </sst>
 </file>
@@ -471,9 +478,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -495,143 +504,23 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -647,42 +536,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5481AA-55DD-41F0-8076-D4F5ED7BA00E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A5:B5" xr:uid="{8C5481AA-55DD-41F0-8076-D4F5ED7BA00E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B16">
+      <sortCondition ref="B5"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -863,20 +855,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -901,12 +894,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51A0115-9239-4B02-BE4A-C267B27D594A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38805A1D-AF3D-42FE-897F-FD04B1DE21EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20250" yWindow="7605" windowWidth="11520" windowHeight="12240" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="30570" yWindow="2370" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,30 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MDGF!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$5:$B$5</definedName>
     <definedName name="ID" localSheetId="0" hidden="1">"a5f5822f-2145-4cc3-aa32-d164ed237772"</definedName>
+    <definedName name="ID" localSheetId="1" hidden="1">"fff7d4e2-cafa-4da0-a3ee-fa93757f1b68"</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Child</t>
   </si>
@@ -63,18 +75,6 @@
     <t>AT50L93100</t>
   </si>
   <si>
-    <t>KE50R0HC22</t>
-  </si>
-  <si>
-    <t>H000000801</t>
-  </si>
-  <si>
-    <t>CZ50R00006</t>
-  </si>
-  <si>
-    <t>H000000907</t>
-  </si>
-  <si>
     <t>ZA50GM1001</t>
   </si>
   <si>
@@ -114,13 +114,61 @@
     <t>H000000805</t>
   </si>
   <si>
-    <t>ZA50R0RA09</t>
-  </si>
-  <si>
-    <t>H000000726</t>
-  </si>
-  <si>
     <t>sd</t>
+  </si>
+  <si>
+    <t>DE20675100</t>
+  </si>
+  <si>
+    <t>DE10523702</t>
+  </si>
+  <si>
+    <t>DE10575000</t>
+  </si>
+  <si>
+    <t>DE10575700</t>
+  </si>
+  <si>
+    <t>DE10577000</t>
+  </si>
+  <si>
+    <t>DE10671000</t>
+  </si>
+  <si>
+    <t>DE10575119</t>
+  </si>
+  <si>
+    <t>DE10575310</t>
+  </si>
+  <si>
+    <t>DE10675100</t>
+  </si>
+  <si>
+    <t>DE10598500</t>
+  </si>
+  <si>
+    <t>DE10598600</t>
+  </si>
+  <si>
+    <t>DE10575300</t>
+  </si>
+  <si>
+    <t>DE10672000</t>
+  </si>
+  <si>
+    <t>G000000414</t>
+  </si>
+  <si>
+    <t>G000000415</t>
+  </si>
+  <si>
+    <t>G000000882</t>
+  </si>
+  <si>
+    <t>G000000417</t>
+  </si>
+  <si>
+    <t>G000000880</t>
   </si>
 </sst>
 </file>
@@ -478,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,26 +549,106 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -565,15 +693,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -610,50 +738,50 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -663,18 +791,19 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -855,21 +984,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -894,9 +1022,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38805A1D-AF3D-42FE-897F-FD04B1DE21EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DF829A-45DD-456E-93C9-96909578632E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30570" yWindow="2370" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Child</t>
   </si>
@@ -117,9 +117,6 @@
     <t>sd</t>
   </si>
   <si>
-    <t>DE20675100</t>
-  </si>
-  <si>
     <t>DE10523702</t>
   </si>
   <si>
@@ -156,19 +153,7 @@
     <t>DE10672000</t>
   </si>
   <si>
-    <t>G000000414</t>
-  </si>
-  <si>
-    <t>G000000415</t>
-  </si>
-  <si>
-    <t>G000000882</t>
-  </si>
-  <si>
-    <t>G000000417</t>
-  </si>
-  <si>
-    <t>G000000880</t>
+    <t>DE10698500</t>
   </si>
 </sst>
 </file>
@@ -529,7 +514,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +545,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -568,7 +553,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -576,7 +561,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -584,7 +569,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,7 +577,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -600,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -608,7 +593,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -616,7 +601,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,31 +609,31 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -798,6 +783,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -806,7 +802,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -983,18 +979,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1002,7 +998,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1019,15 +1015,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DF829A-45DD-456E-93C9-96909578632E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75402098-3392-4B10-9F15-C71C284EAFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="4275" yWindow="1785" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Child</t>
   </si>
@@ -117,43 +117,28 @@
     <t>sd</t>
   </si>
   <si>
-    <t>DE10523702</t>
-  </si>
-  <si>
-    <t>DE10575000</t>
-  </si>
-  <si>
-    <t>DE10575700</t>
-  </si>
-  <si>
-    <t>DE10577000</t>
-  </si>
-  <si>
-    <t>DE10671000</t>
-  </si>
-  <si>
-    <t>DE10575119</t>
-  </si>
-  <si>
-    <t>DE10575310</t>
-  </si>
-  <si>
-    <t>DE10675100</t>
-  </si>
-  <si>
-    <t>DE10598500</t>
-  </si>
-  <si>
-    <t>DE10598600</t>
-  </si>
-  <si>
-    <t>DE10575300</t>
-  </si>
-  <si>
-    <t>DE10672000</t>
-  </si>
-  <si>
-    <t>DE10698500</t>
+    <t>DE10515400</t>
+  </si>
+  <si>
+    <t>DE10533731</t>
+  </si>
+  <si>
+    <t>DE10533730</t>
+  </si>
+  <si>
+    <t>2029GIT00M</t>
+  </si>
+  <si>
+    <t>2123GIT094</t>
+  </si>
+  <si>
+    <t>CH50L98016</t>
+  </si>
+  <si>
+    <t>G000001238</t>
+  </si>
+  <si>
+    <t>L000013808</t>
   </si>
 </sst>
 </file>
@@ -511,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +522,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,7 +530,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -553,7 +538,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,7 +546,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,7 +554,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,63 +562,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -794,15 +723,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -979,6 +899,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
   <ds:schemaRefs>
@@ -991,14 +920,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1015,4 +936,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75402098-3392-4B10-9F15-C71C284EAFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019D20A1-6183-4B59-A19B-BE30F316A359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="1785" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>Child</t>
   </si>
@@ -117,28 +117,115 @@
     <t>sd</t>
   </si>
   <si>
-    <t>DE10515400</t>
-  </si>
-  <si>
-    <t>DE10533731</t>
-  </si>
-  <si>
-    <t>DE10533730</t>
-  </si>
-  <si>
-    <t>2029GIT00M</t>
-  </si>
-  <si>
-    <t>2123GIT094</t>
-  </si>
-  <si>
-    <t>CH50L98016</t>
-  </si>
-  <si>
-    <t>G000001238</t>
-  </si>
-  <si>
-    <t>L000013808</t>
+    <t>DE20538290</t>
+  </si>
+  <si>
+    <t>DE10598000</t>
+  </si>
+  <si>
+    <t>DE10598100</t>
+  </si>
+  <si>
+    <t>DE10598200</t>
+  </si>
+  <si>
+    <t>DE10598300</t>
+  </si>
+  <si>
+    <t>DE10598400</t>
+  </si>
+  <si>
+    <t>DE10598700</t>
+  </si>
+  <si>
+    <t>DE20538280</t>
+  </si>
+  <si>
+    <t>DE20568200</t>
+  </si>
+  <si>
+    <t>DE20529600</t>
+  </si>
+  <si>
+    <t>DE20847200</t>
+  </si>
+  <si>
+    <t>DE10538257</t>
+  </si>
+  <si>
+    <t>DE20538295</t>
+  </si>
+  <si>
+    <t>DE10538295</t>
+  </si>
+  <si>
+    <t>DE20538456</t>
+  </si>
+  <si>
+    <t>DE10538456</t>
+  </si>
+  <si>
+    <t>DE10523100</t>
+  </si>
+  <si>
+    <t>DE20538554</t>
+  </si>
+  <si>
+    <t>DE10538554</t>
+  </si>
+  <si>
+    <t>DE10840200</t>
+  </si>
+  <si>
+    <t>DE10537810</t>
+  </si>
+  <si>
+    <t>DE20538242</t>
+  </si>
+  <si>
+    <t>DE10538242</t>
+  </si>
+  <si>
+    <t>DE20538431</t>
+  </si>
+  <si>
+    <t>DE10538431</t>
+  </si>
+  <si>
+    <t>DE10567105</t>
+  </si>
+  <si>
+    <t>DE10566400</t>
+  </si>
+  <si>
+    <t>DE10505600</t>
+  </si>
+  <si>
+    <t>DE20625300</t>
+  </si>
+  <si>
+    <t>DE20585300</t>
+  </si>
+  <si>
+    <t>DE10649700</t>
+  </si>
+  <si>
+    <t>DE10607900</t>
+  </si>
+  <si>
+    <t>DE10517300</t>
+  </si>
+  <si>
+    <t>DE20569511</t>
+  </si>
+  <si>
+    <t>DE20675101</t>
+  </si>
+  <si>
+    <t>DE10GT8764</t>
+  </si>
+  <si>
+    <t>L000013119</t>
   </si>
 </sst>
 </file>
@@ -496,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +609,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -530,7 +617,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -538,7 +625,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -546,7 +633,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -554,7 +641,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -562,7 +649,247 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -712,17 +1039,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -899,6 +1215,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -909,17 +1236,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -938,6 +1254,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
   <ds:schemaRefs>

--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019D20A1-6183-4B59-A19B-BE30F316A359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E03C32C-7D9A-40FE-A90D-0EFF0F521632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Child</t>
   </si>
@@ -117,115 +117,25 @@
     <t>sd</t>
   </si>
   <si>
-    <t>DE20538290</t>
-  </si>
-  <si>
-    <t>DE10598000</t>
-  </si>
-  <si>
-    <t>DE10598100</t>
-  </si>
-  <si>
-    <t>DE10598200</t>
-  </si>
-  <si>
-    <t>DE10598300</t>
-  </si>
-  <si>
-    <t>DE10598400</t>
-  </si>
-  <si>
-    <t>DE10598700</t>
-  </si>
-  <si>
-    <t>DE20538280</t>
-  </si>
-  <si>
-    <t>DE20568200</t>
-  </si>
-  <si>
-    <t>DE20529600</t>
-  </si>
-  <si>
-    <t>DE20847200</t>
-  </si>
-  <si>
-    <t>DE10538257</t>
-  </si>
-  <si>
-    <t>DE20538295</t>
-  </si>
-  <si>
-    <t>DE10538295</t>
-  </si>
-  <si>
-    <t>DE20538456</t>
-  </si>
-  <si>
-    <t>DE10538456</t>
-  </si>
-  <si>
-    <t>DE10523100</t>
-  </si>
-  <si>
-    <t>DE20538554</t>
-  </si>
-  <si>
-    <t>DE10538554</t>
-  </si>
-  <si>
-    <t>DE10840200</t>
-  </si>
-  <si>
-    <t>DE10537810</t>
-  </si>
-  <si>
-    <t>DE20538242</t>
-  </si>
-  <si>
-    <t>DE10538242</t>
-  </si>
-  <si>
-    <t>DE20538431</t>
-  </si>
-  <si>
-    <t>DE10538431</t>
-  </si>
-  <si>
-    <t>DE10567105</t>
-  </si>
-  <si>
-    <t>DE10566400</t>
-  </si>
-  <si>
-    <t>DE10505600</t>
-  </si>
-  <si>
-    <t>DE20625300</t>
-  </si>
-  <si>
-    <t>DE20585300</t>
-  </si>
-  <si>
-    <t>DE10649700</t>
-  </si>
-  <si>
-    <t>DE10607900</t>
-  </si>
-  <si>
-    <t>DE10517300</t>
-  </si>
-  <si>
-    <t>DE20569511</t>
-  </si>
-  <si>
-    <t>DE20675101</t>
-  </si>
-  <si>
-    <t>DE10GT8764</t>
-  </si>
-  <si>
-    <t>L000013119</t>
+    <t>ZA50GIT10C</t>
+  </si>
+  <si>
+    <t>EE50GIT00C</t>
+  </si>
+  <si>
+    <t>KE50GIT10B</t>
+  </si>
+  <si>
+    <t>KE50GIT10C</t>
+  </si>
+  <si>
+    <t>G000001233</t>
+  </si>
+  <si>
+    <t>H000004185</t>
+  </si>
+  <si>
+    <t>G000000279</t>
   </si>
 </sst>
 </file>
@@ -287,9 +197,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +237,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -433,7 +343,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,7 +485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,11 +493,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -609,7 +517,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -617,7 +525,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -625,7 +533,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -633,263 +541,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +550,6 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
@@ -1216,6 +867,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
@@ -1224,15 +884,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1255,6 +906,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1263,12 +922,4 @@
     <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E03C32C-7D9A-40FE-A90D-0EFF0F521632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BF11B9-E9EB-482A-83A4-8034B13A224B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-19815" yWindow="2205" windowWidth="11520" windowHeight="12240" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -22,28 +22,17 @@
     <definedName name="ID" localSheetId="0" hidden="1">"a5f5822f-2145-4cc3-aa32-d164ed237772"</definedName>
     <definedName name="ID" localSheetId="1" hidden="1">"fff7d4e2-cafa-4da0-a3ee-fa93757f1b68"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Child</t>
   </si>
@@ -117,25 +106,55 @@
     <t>sd</t>
   </si>
   <si>
-    <t>ZA50GIT10C</t>
-  </si>
-  <si>
-    <t>EE50GIT00C</t>
-  </si>
-  <si>
-    <t>KE50GIT10B</t>
-  </si>
-  <si>
-    <t>KE50GIT10C</t>
-  </si>
-  <si>
-    <t>G000001233</t>
-  </si>
-  <si>
-    <t>H000004185</t>
-  </si>
-  <si>
-    <t>G000000279</t>
+    <t>P000000391</t>
+  </si>
+  <si>
+    <t>P000000773</t>
+  </si>
+  <si>
+    <t>P000000543</t>
+  </si>
+  <si>
+    <t>P000000549</t>
+  </si>
+  <si>
+    <t>P000000798</t>
+  </si>
+  <si>
+    <t>P000000799</t>
+  </si>
+  <si>
+    <t>P000000961</t>
+  </si>
+  <si>
+    <t>P000001095</t>
+  </si>
+  <si>
+    <t>P000001096</t>
+  </si>
+  <si>
+    <t>P000001097</t>
+  </si>
+  <si>
+    <t>P000001098</t>
+  </si>
+  <si>
+    <t>P000001099</t>
+  </si>
+  <si>
+    <t>P000001100</t>
+  </si>
+  <si>
+    <t>P000001101</t>
+  </si>
+  <si>
+    <t>P000001163</t>
+  </si>
+  <si>
+    <t>P000001164</t>
+  </si>
+  <si>
+    <t>O000000009</t>
   </si>
 </sst>
 </file>
@@ -157,15 +176,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -173,12 +198,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,9 +235,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -237,7 +275,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -343,7 +381,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -485,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,9 +531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -513,35 +553,131 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -690,6 +826,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -866,27 +1022,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -903,23 +1058,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BF11B9-E9EB-482A-83A4-8034B13A224B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132E272C-B72F-4F8C-9845-4599783092AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19815" yWindow="2205" windowWidth="11520" windowHeight="12240" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
   <si>
     <t>Child</t>
   </si>
@@ -155,6 +155,99 @@
   </si>
   <si>
     <t>O000000009</t>
+  </si>
+  <si>
+    <t>G000000511</t>
+  </si>
+  <si>
+    <t>G000000512</t>
+  </si>
+  <si>
+    <t>G000000513</t>
+  </si>
+  <si>
+    <t>G000000514</t>
+  </si>
+  <si>
+    <t>G000001007</t>
+  </si>
+  <si>
+    <t>G000001065</t>
+  </si>
+  <si>
+    <t>G000001066</t>
+  </si>
+  <si>
+    <t>G000000387</t>
+  </si>
+  <si>
+    <t>G000000391</t>
+  </si>
+  <si>
+    <t>G000000415</t>
+  </si>
+  <si>
+    <t>G000000417</t>
+  </si>
+  <si>
+    <t>G000000880</t>
+  </si>
+  <si>
+    <t>G000000881</t>
+  </si>
+  <si>
+    <t>G000001023</t>
+  </si>
+  <si>
+    <t>G000001024</t>
+  </si>
+  <si>
+    <t>G000000950</t>
+  </si>
+  <si>
+    <t>G000000414</t>
+  </si>
+  <si>
+    <t>G000000363</t>
+  </si>
+  <si>
+    <t>G000000888</t>
+  </si>
+  <si>
+    <t>G000001008</t>
+  </si>
+  <si>
+    <t>G000000471</t>
+  </si>
+  <si>
+    <t>G000000467</t>
+  </si>
+  <si>
+    <t>G000000529</t>
+  </si>
+  <si>
+    <t>G000000873</t>
+  </si>
+  <si>
+    <t>G000000389</t>
+  </si>
+  <si>
+    <t>G000000994</t>
+  </si>
+  <si>
+    <t>G000000995</t>
+  </si>
+  <si>
+    <t>G000000993</t>
+  </si>
+  <si>
+    <t>G000000879</t>
+  </si>
+  <si>
+    <t>G000000495</t>
+  </si>
+  <si>
+    <t>G000000523</t>
   </si>
 </sst>
 </file>
@@ -531,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,103 +647,103 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
@@ -658,7 +751,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
@@ -666,7 +759,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -674,10 +767,266 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
-        <v>40</v>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -837,15 +1186,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -1022,6 +1362,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
   <ds:schemaRefs>
@@ -1034,14 +1383,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1058,4 +1399,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\GCOH Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132E272C-B72F-4F8C-9845-4599783092AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E018BB89-5547-406A-AA3B-94CFEB1674E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="5520" yWindow="1950" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,28 @@
     <definedName name="ID" localSheetId="0" hidden="1">"a5f5822f-2145-4cc3-aa32-d164ed237772"</definedName>
     <definedName name="ID" localSheetId="1" hidden="1">"fff7d4e2-cafa-4da0-a3ee-fa93757f1b68"</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>Child</t>
   </si>
@@ -106,148 +117,193 @@
     <t>sd</t>
   </si>
   <si>
-    <t>P000000391</t>
-  </si>
-  <si>
-    <t>P000000773</t>
-  </si>
-  <si>
-    <t>P000000543</t>
-  </si>
-  <si>
-    <t>P000000549</t>
-  </si>
-  <si>
-    <t>P000000798</t>
-  </si>
-  <si>
-    <t>P000000799</t>
-  </si>
-  <si>
-    <t>P000000961</t>
-  </si>
-  <si>
-    <t>P000001095</t>
-  </si>
-  <si>
-    <t>P000001096</t>
-  </si>
-  <si>
-    <t>P000001097</t>
-  </si>
-  <si>
-    <t>P000001098</t>
-  </si>
-  <si>
-    <t>P000001099</t>
-  </si>
-  <si>
-    <t>P000001100</t>
-  </si>
-  <si>
-    <t>P000001101</t>
-  </si>
-  <si>
-    <t>P000001163</t>
-  </si>
-  <si>
-    <t>P000001164</t>
-  </si>
-  <si>
-    <t>O000000009</t>
-  </si>
-  <si>
-    <t>G000000511</t>
-  </si>
-  <si>
-    <t>G000000512</t>
-  </si>
-  <si>
-    <t>G000000513</t>
-  </si>
-  <si>
-    <t>G000000514</t>
-  </si>
-  <si>
-    <t>G000001007</t>
-  </si>
-  <si>
-    <t>G000001065</t>
-  </si>
-  <si>
-    <t>G000001066</t>
-  </si>
-  <si>
-    <t>G000000387</t>
-  </si>
-  <si>
-    <t>G000000391</t>
-  </si>
-  <si>
-    <t>G000000415</t>
-  </si>
-  <si>
-    <t>G000000417</t>
-  </si>
-  <si>
-    <t>G000000880</t>
-  </si>
-  <si>
-    <t>G000000881</t>
-  </si>
-  <si>
-    <t>G000001023</t>
-  </si>
-  <si>
-    <t>G000001024</t>
-  </si>
-  <si>
-    <t>G000000950</t>
-  </si>
-  <si>
-    <t>G000000414</t>
-  </si>
-  <si>
-    <t>G000000363</t>
-  </si>
-  <si>
-    <t>G000000888</t>
-  </si>
-  <si>
-    <t>G000001008</t>
-  </si>
-  <si>
-    <t>G000000471</t>
-  </si>
-  <si>
-    <t>G000000467</t>
-  </si>
-  <si>
-    <t>G000000529</t>
-  </si>
-  <si>
-    <t>G000000873</t>
-  </si>
-  <si>
-    <t>G000000389</t>
-  </si>
-  <si>
-    <t>G000000994</t>
-  </si>
-  <si>
-    <t>G000000995</t>
-  </si>
-  <si>
-    <t>G000000993</t>
-  </si>
-  <si>
-    <t>G000000879</t>
-  </si>
-  <si>
-    <t>G000000495</t>
-  </si>
-  <si>
-    <t>G000000523</t>
+    <t>2123C00050</t>
+  </si>
+  <si>
+    <t>2123C00061</t>
+  </si>
+  <si>
+    <t>2123C00068</t>
+  </si>
+  <si>
+    <t>2123C00082</t>
+  </si>
+  <si>
+    <t>2123C00004</t>
+  </si>
+  <si>
+    <t>2123C00007</t>
+  </si>
+  <si>
+    <t>2123C00043</t>
+  </si>
+  <si>
+    <t>2123C00044</t>
+  </si>
+  <si>
+    <t>2123C00045</t>
+  </si>
+  <si>
+    <t>2123C00074</t>
+  </si>
+  <si>
+    <t>2123C00085</t>
+  </si>
+  <si>
+    <t>2123C00091</t>
+  </si>
+  <si>
+    <t>2123C08478</t>
+  </si>
+  <si>
+    <t>2123C08504</t>
+  </si>
+  <si>
+    <t>2123C0BS05</t>
+  </si>
+  <si>
+    <t>2123C0BS06</t>
+  </si>
+  <si>
+    <t>2123C0BS07</t>
+  </si>
+  <si>
+    <t>2123C00011</t>
+  </si>
+  <si>
+    <t>2123C00078</t>
+  </si>
+  <si>
+    <t>2123C08519</t>
+  </si>
+  <si>
+    <t>2123OF0010</t>
+  </si>
+  <si>
+    <t>2123OF0018</t>
+  </si>
+  <si>
+    <t>2123C00009</t>
+  </si>
+  <si>
+    <t>2123C00022</t>
+  </si>
+  <si>
+    <t>2123C00098</t>
+  </si>
+  <si>
+    <t>2123C00103</t>
+  </si>
+  <si>
+    <t>2123C00102</t>
+  </si>
+  <si>
+    <t>2123OF0009</t>
+  </si>
+  <si>
+    <t>2123TPSZ91</t>
+  </si>
+  <si>
+    <t>2123TPSZ93</t>
+  </si>
+  <si>
+    <t>2123L80001</t>
+  </si>
+  <si>
+    <t>2123TPSZ90</t>
+  </si>
+  <si>
+    <t>2123TQJZ94</t>
+  </si>
+  <si>
+    <t>2123OF0015</t>
+  </si>
+  <si>
+    <t>2123L50024</t>
+  </si>
+  <si>
+    <t>2123L58472</t>
+  </si>
+  <si>
+    <t>2123L50006</t>
+  </si>
+  <si>
+    <t>2123L50005</t>
+  </si>
+  <si>
+    <t>2123L50003</t>
+  </si>
+  <si>
+    <t>2123L50004</t>
+  </si>
+  <si>
+    <t>2123C00112</t>
+  </si>
+  <si>
+    <t>2123OF0025</t>
+  </si>
+  <si>
+    <t>2123OF0024</t>
+  </si>
+  <si>
+    <t>2123OF0021</t>
+  </si>
+  <si>
+    <t>G000001303</t>
+  </si>
+  <si>
+    <t>G000001294</t>
+  </si>
+  <si>
+    <t>G000001295</t>
+  </si>
+  <si>
+    <t>G000001296</t>
+  </si>
+  <si>
+    <t>G000001334</t>
+  </si>
+  <si>
+    <t>G000001299</t>
+  </si>
+  <si>
+    <t>G000001337</t>
+  </si>
+  <si>
+    <t>G000001302</t>
+  </si>
+  <si>
+    <t>G000001306</t>
+  </si>
+  <si>
+    <t>G000001341</t>
+  </si>
+  <si>
+    <t>G000001307</t>
+  </si>
+  <si>
+    <t>G000001343</t>
+  </si>
+  <si>
+    <t>G000001316</t>
+  </si>
+  <si>
+    <t>G000001317</t>
+  </si>
+  <si>
+    <t>G000001352</t>
+  </si>
+  <si>
+    <t>G000001318</t>
+  </si>
+  <si>
+    <t>G000001309</t>
+  </si>
+  <si>
+    <t>G000001310</t>
+  </si>
+  <si>
+    <t>G000001311</t>
   </si>
 </sst>
 </file>
@@ -269,21 +325,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -291,25 +341,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -328,9 +365,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -368,7 +405,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -474,7 +511,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -616,7 +653,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -624,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,387 +683,355 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>66</v>
+      <c r="A2" t="s">
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>67</v>
+      <c r="A3" t="s">
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>68</v>
+      <c r="A4" t="s">
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
+      <c r="A5" t="s">
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
+      <c r="A6" t="s">
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>43</v>
+      <c r="A7" t="s">
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
+      <c r="A8" t="s">
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>45</v>
+      <c r="A9" t="s">
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>46</v>
+      <c r="A10" t="s">
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>47</v>
+      <c r="A11" t="s">
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>48</v>
+      <c r="A12" t="s">
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>49</v>
+      <c r="A13" t="s">
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
+      <c r="A14" t="s">
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
+      <c r="A15" t="s">
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
+      <c r="A16" t="s">
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
+      <c r="A17" t="s">
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E018BB89-5547-406A-AA3B-94CFEB1674E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7361FF-90AB-4FAE-85DF-5BF1AA430596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="1950" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="ID" localSheetId="0" hidden="1">"a5f5822f-2145-4cc3-aa32-d164ed237772"</definedName>
     <definedName name="ID" localSheetId="1" hidden="1">"fff7d4e2-cafa-4da0-a3ee-fa93757f1b68"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Child</t>
   </si>
@@ -117,193 +117,49 @@
     <t>sd</t>
   </si>
   <si>
-    <t>2123C00050</t>
-  </si>
-  <si>
-    <t>2123C00061</t>
-  </si>
-  <si>
-    <t>2123C00068</t>
-  </si>
-  <si>
-    <t>2123C00082</t>
-  </si>
-  <si>
-    <t>2123C00004</t>
-  </si>
-  <si>
-    <t>2123C00007</t>
-  </si>
-  <si>
-    <t>2123C00043</t>
-  </si>
-  <si>
-    <t>2123C00044</t>
-  </si>
-  <si>
-    <t>2123C00045</t>
-  </si>
-  <si>
-    <t>2123C00074</t>
-  </si>
-  <si>
-    <t>2123C00085</t>
-  </si>
-  <si>
-    <t>2123C00091</t>
-  </si>
-  <si>
-    <t>2123C08478</t>
-  </si>
-  <si>
-    <t>2123C08504</t>
-  </si>
-  <si>
-    <t>2123C0BS05</t>
-  </si>
-  <si>
-    <t>2123C0BS06</t>
-  </si>
-  <si>
-    <t>2123C0BS07</t>
-  </si>
-  <si>
-    <t>2123C00011</t>
-  </si>
-  <si>
-    <t>2123C00078</t>
-  </si>
-  <si>
-    <t>2123C08519</t>
-  </si>
-  <si>
-    <t>2123OF0010</t>
-  </si>
-  <si>
-    <t>2123OF0018</t>
-  </si>
-  <si>
-    <t>2123C00009</t>
-  </si>
-  <si>
-    <t>2123C00022</t>
-  </si>
-  <si>
-    <t>2123C00098</t>
-  </si>
-  <si>
-    <t>2123C00103</t>
-  </si>
-  <si>
-    <t>2123C00102</t>
-  </si>
-  <si>
-    <t>2123OF0009</t>
-  </si>
-  <si>
-    <t>2123TPSZ91</t>
-  </si>
-  <si>
-    <t>2123TPSZ93</t>
-  </si>
-  <si>
-    <t>2123L80001</t>
-  </si>
-  <si>
-    <t>2123TPSZ90</t>
-  </si>
-  <si>
-    <t>2123TQJZ94</t>
-  </si>
-  <si>
-    <t>2123OF0015</t>
-  </si>
-  <si>
-    <t>2123L50024</t>
-  </si>
-  <si>
-    <t>2123L58472</t>
-  </si>
-  <si>
-    <t>2123L50006</t>
-  </si>
-  <si>
-    <t>2123L50005</t>
-  </si>
-  <si>
-    <t>2123L50003</t>
-  </si>
-  <si>
-    <t>2123L50004</t>
-  </si>
-  <si>
-    <t>2123C00112</t>
-  </si>
-  <si>
-    <t>2123OF0025</t>
-  </si>
-  <si>
-    <t>2123OF0024</t>
-  </si>
-  <si>
-    <t>2123OF0021</t>
-  </si>
-  <si>
-    <t>G000001303</t>
-  </si>
-  <si>
-    <t>G000001294</t>
-  </si>
-  <si>
-    <t>G000001295</t>
-  </si>
-  <si>
-    <t>G000001296</t>
-  </si>
-  <si>
-    <t>G000001334</t>
-  </si>
-  <si>
-    <t>G000001299</t>
-  </si>
-  <si>
-    <t>G000001337</t>
-  </si>
-  <si>
-    <t>G000001302</t>
-  </si>
-  <si>
-    <t>G000001306</t>
-  </si>
-  <si>
-    <t>G000001341</t>
-  </si>
-  <si>
-    <t>G000001307</t>
-  </si>
-  <si>
-    <t>G000001343</t>
-  </si>
-  <si>
-    <t>G000001316</t>
-  </si>
-  <si>
-    <t>G000001317</t>
-  </si>
-  <si>
-    <t>G000001352</t>
-  </si>
-  <si>
-    <t>G000001318</t>
-  </si>
-  <si>
-    <t>G000001309</t>
-  </si>
-  <si>
-    <t>G000001310</t>
-  </si>
-  <si>
-    <t>G000001311</t>
+    <t>US20Z01000</t>
+  </si>
+  <si>
+    <t>US16Z01000</t>
+  </si>
+  <si>
+    <t>US14Z01000</t>
+  </si>
+  <si>
+    <t>US15Z01000</t>
+  </si>
+  <si>
+    <t>US01TNHZ06</t>
+  </si>
+  <si>
+    <t>TW03TOKA00</t>
+  </si>
+  <si>
+    <t>US01TNHZ05</t>
+  </si>
+  <si>
+    <t>US01TN0001</t>
+  </si>
+  <si>
+    <t>US10TN2100</t>
+  </si>
+  <si>
+    <t>CN10C01004</t>
+  </si>
+  <si>
+    <t>P000001045</t>
+  </si>
+  <si>
+    <t>P000001191</t>
+  </si>
+  <si>
+    <t>P000001195</t>
+  </si>
+  <si>
+    <t>P000001187</t>
+  </si>
+  <si>
+    <t>P000001193</t>
   </si>
 </sst>
 </file>
@@ -661,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +543,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +551,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +559,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +567,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +575,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +583,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +591,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +599,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +607,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,279 +615,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1180,14 +764,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1368,21 +950,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1407,9 +988,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7361FF-90AB-4FAE-85DF-5BF1AA430596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1318A05A-E574-4BA9-B9E7-406118FF1B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="29970" yWindow="3990" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="ID" localSheetId="0" hidden="1">"a5f5822f-2145-4cc3-aa32-d164ed237772"</definedName>
     <definedName name="ID" localSheetId="1" hidden="1">"fff7d4e2-cafa-4da0-a3ee-fa93757f1b68"</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Child</t>
   </si>
@@ -117,49 +117,37 @@
     <t>sd</t>
   </si>
   <si>
-    <t>US20Z01000</t>
-  </si>
-  <si>
-    <t>US16Z01000</t>
-  </si>
-  <si>
-    <t>US14Z01000</t>
-  </si>
-  <si>
-    <t>US15Z01000</t>
-  </si>
-  <si>
-    <t>US01TNHZ06</t>
-  </si>
-  <si>
-    <t>TW03TOKA00</t>
-  </si>
-  <si>
-    <t>US01TNHZ05</t>
-  </si>
-  <si>
-    <t>US01TN0001</t>
-  </si>
-  <si>
-    <t>US10TN2100</t>
-  </si>
-  <si>
-    <t>CN10C01004</t>
-  </si>
-  <si>
-    <t>P000001045</t>
-  </si>
-  <si>
-    <t>P000001191</t>
-  </si>
-  <si>
-    <t>P000001195</t>
-  </si>
-  <si>
-    <t>P000001187</t>
-  </si>
-  <si>
-    <t>P000001193</t>
+    <t>DE1XGIN006</t>
+  </si>
+  <si>
+    <t>DE1XGM1008</t>
+  </si>
+  <si>
+    <t>DE10GM2000</t>
+  </si>
+  <si>
+    <t>DE1XGM4009</t>
+  </si>
+  <si>
+    <t>DE1XGM8003</t>
+  </si>
+  <si>
+    <t>KR08GLE009</t>
+  </si>
+  <si>
+    <t>KR11GLE006</t>
+  </si>
+  <si>
+    <t>KR15GLE006</t>
+  </si>
+  <si>
+    <t>KR16GLE006</t>
+  </si>
+  <si>
+    <t>SG10GM2004</t>
+  </si>
+  <si>
+    <t>O000000007</t>
   </si>
 </sst>
 </file>
@@ -520,7 +508,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +563,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,7 +579,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +587,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +595,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +603,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -773,6 +761,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -949,17 +948,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
   <ds:schemaRefs>
@@ -969,6 +957,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -985,15 +984,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1318A05A-E574-4BA9-B9E7-406118FF1B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792E62E1-43A6-40A0-BEDE-447C7823DA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="3990" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="5040" yWindow="2805" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>Child</t>
   </si>
@@ -117,37 +117,73 @@
     <t>sd</t>
   </si>
   <si>
-    <t>DE1XGIN006</t>
-  </si>
-  <si>
-    <t>DE1XGM1008</t>
-  </si>
-  <si>
-    <t>DE10GM2000</t>
-  </si>
-  <si>
-    <t>DE1XGM4009</t>
-  </si>
-  <si>
-    <t>DE1XGM8003</t>
-  </si>
-  <si>
-    <t>KR08GLE009</t>
-  </si>
-  <si>
-    <t>KR11GLE006</t>
-  </si>
-  <si>
-    <t>KR15GLE006</t>
-  </si>
-  <si>
-    <t>KR16GLE006</t>
-  </si>
-  <si>
-    <t>SG10GM2004</t>
-  </si>
-  <si>
-    <t>O000000007</t>
+    <t>DE10505500</t>
+  </si>
+  <si>
+    <t>DE10550100</t>
+  </si>
+  <si>
+    <t>DE10559100</t>
+  </si>
+  <si>
+    <t>DE10566910</t>
+  </si>
+  <si>
+    <t>DE10580022</t>
+  </si>
+  <si>
+    <t>DE10580023</t>
+  </si>
+  <si>
+    <t>DE10580024</t>
+  </si>
+  <si>
+    <t>DE10580025</t>
+  </si>
+  <si>
+    <t>DE10580026</t>
+  </si>
+  <si>
+    <t>DE10580027</t>
+  </si>
+  <si>
+    <t>DE10580040</t>
+  </si>
+  <si>
+    <t>DE10628300</t>
+  </si>
+  <si>
+    <t>DE20675105</t>
+  </si>
+  <si>
+    <t>DE20675106</t>
+  </si>
+  <si>
+    <t>DE20517200</t>
+  </si>
+  <si>
+    <t>DE20847204</t>
+  </si>
+  <si>
+    <t>DE20847205</t>
+  </si>
+  <si>
+    <t>DE20847206</t>
+  </si>
+  <si>
+    <t>DE20847207</t>
+  </si>
+  <si>
+    <t>DE10698316</t>
+  </si>
+  <si>
+    <t>CN09L16005</t>
+  </si>
+  <si>
+    <t>G000001280</t>
+  </si>
+  <si>
+    <t>P000000499</t>
   </si>
 </sst>
 </file>
@@ -505,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +567,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -539,7 +575,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -547,7 +583,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -555,7 +591,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -563,7 +599,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -571,7 +607,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,7 +615,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -587,7 +623,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -595,7 +631,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +639,95 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -761,17 +885,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -948,6 +1061,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
   <ds:schemaRefs>
@@ -957,17 +1081,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -984,4 +1097,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GCOH Resources/GCOHPost.xlsx
+++ b/GCOH Resources/GCOHPost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\GCOH Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792E62E1-43A6-40A0-BEDE-447C7823DA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4006C8-C593-494E-BEF5-5E3EA7053EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2805" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
+    <workbookView xWindow="4755" yWindow="3210" windowWidth="20910" windowHeight="11835" xr2:uid="{9D4B8E05-E149-4A97-BE17-9860CFEAED05}"/>
   </bookViews>
   <sheets>
     <sheet name="MDGF" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Child</t>
   </si>
@@ -117,73 +117,46 @@
     <t>sd</t>
   </si>
   <si>
-    <t>DE10505500</t>
-  </si>
-  <si>
-    <t>DE10550100</t>
-  </si>
-  <si>
-    <t>DE10559100</t>
-  </si>
-  <si>
-    <t>DE10566910</t>
-  </si>
-  <si>
-    <t>DE10580022</t>
-  </si>
-  <si>
-    <t>DE10580023</t>
-  </si>
-  <si>
-    <t>DE10580024</t>
-  </si>
-  <si>
-    <t>DE10580025</t>
-  </si>
-  <si>
-    <t>DE10580026</t>
-  </si>
-  <si>
-    <t>DE10580027</t>
-  </si>
-  <si>
-    <t>DE10580040</t>
-  </si>
-  <si>
-    <t>DE10628300</t>
-  </si>
-  <si>
-    <t>DE20675105</t>
-  </si>
-  <si>
-    <t>DE20675106</t>
-  </si>
-  <si>
-    <t>DE20517200</t>
-  </si>
-  <si>
-    <t>DE20847204</t>
-  </si>
-  <si>
-    <t>DE20847205</t>
-  </si>
-  <si>
-    <t>DE20847206</t>
-  </si>
-  <si>
-    <t>DE20847207</t>
-  </si>
-  <si>
-    <t>DE10698316</t>
-  </si>
-  <si>
-    <t>CN09L16005</t>
-  </si>
-  <si>
-    <t>G000001280</t>
-  </si>
-  <si>
-    <t>P000000499</t>
+    <t>DE10622600</t>
+  </si>
+  <si>
+    <t>DE10513301</t>
+  </si>
+  <si>
+    <t>DE10533004</t>
+  </si>
+  <si>
+    <t>DE65GIT032</t>
+  </si>
+  <si>
+    <t>VN50GIT050</t>
+  </si>
+  <si>
+    <t>ZA50GIT11B</t>
+  </si>
+  <si>
+    <t>US10GIT044</t>
+  </si>
+  <si>
+    <t>DE10600870</t>
+  </si>
+  <si>
+    <t>G000000392</t>
+  </si>
+  <si>
+    <t>G000001356</t>
+  </si>
+  <si>
+    <t>G000001123</t>
+  </si>
+  <si>
+    <t>G000000256</t>
+  </si>
+  <si>
+    <t>H000004183</t>
+  </si>
+  <si>
+    <t>G000000279</t>
   </si>
 </sst>
 </file>
@@ -541,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727C8BCB-C2B7-4B24-AC50-E6BDF8320BBE}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +540,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +548,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +556,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,7 +564,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +572,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +580,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +588,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,110 +597,6 @@
       </c>
       <c r="B9" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -885,6 +754,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ED8CFF7E4A8C54DB0FB6A701E4396A9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0054764cec7dc7c93b4af6049901bbd5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01" xmlns:ns3="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df68a8a9c021719e783243c7bc54c348" ns2:_="" ns3:_="">
     <xsd:import namespace="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
@@ -1061,17 +941,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6e6028c0-cacb-4ef6-8532-444dfe1b79a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D3C4D-1EB0-4D9D-8D89-5C2B1DF0074E}">
   <ds:schemaRefs>
@@ -1081,6 +950,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
+    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDEB69F-AD4A-4DDF-9F03-7CB95A56DF88}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1097,15 +977,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85123729-9994-4A95-BAA7-D1009B81DC0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6e6028c0-cacb-4ef6-8532-444dfe1b79a8"/>
-    <ds:schemaRef ds:uri="e8dd6ffc-3db2-45ec-9c01-73bc56a45b01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>